--- a/data/2425/players_ssn.xlsx
+++ b/data/2425/players_ssn.xlsx
@@ -4284,8 +4284,8 @@
       <c r="Y2" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z2" t="e">
-        <v>#N/A</v>
+      <c r="Z2" t="n">
+        <v>-20.0</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
@@ -4391,8 +4391,8 @@
       <c r="Y3" t="n">
         <v>96.0</v>
       </c>
-      <c r="Z3" t="e">
-        <v>#N/A</v>
+      <c r="Z3" t="n">
+        <v>-30.0</v>
       </c>
       <c r="AA3" t="n">
         <v>0.0</v>
@@ -4498,8 +4498,8 @@
       <c r="Y4" t="n">
         <v>8.0</v>
       </c>
-      <c r="Z4" t="e">
-        <v>#N/A</v>
+      <c r="Z4" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA4" t="n">
         <v>0.0</v>
@@ -4605,8 +4605,8 @@
       <c r="Y5" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z5" t="e">
-        <v>#N/A</v>
+      <c r="Z5" t="n">
+        <v>-48.0</v>
       </c>
       <c r="AA5" t="n">
         <v>6.0</v>
@@ -4712,8 +4712,8 @@
       <c r="Y6" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z6" t="e">
-        <v>#N/A</v>
+      <c r="Z6" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA6" t="n">
         <v>0.0</v>
@@ -4819,8 +4819,8 @@
       <c r="Y7" t="n">
         <v>84.0</v>
       </c>
-      <c r="Z7" t="e">
-        <v>#N/A</v>
+      <c r="Z7" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA7" t="n">
         <v>21.0</v>
@@ -4926,8 +4926,8 @@
       <c r="Y8" t="n">
         <v>52.0</v>
       </c>
-      <c r="Z8" t="e">
-        <v>#N/A</v>
+      <c r="Z8" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA8" t="n">
         <v>6.0</v>
@@ -5033,8 +5033,8 @@
       <c r="Y9" t="n">
         <v>98.0</v>
       </c>
-      <c r="Z9" t="e">
-        <v>#N/A</v>
+      <c r="Z9" t="n">
+        <v>-42.0</v>
       </c>
       <c r="AA9" t="n">
         <v>9.0</v>
@@ -5140,8 +5140,8 @@
       <c r="Y10" t="n">
         <v>86.0</v>
       </c>
-      <c r="Z10" t="e">
-        <v>#N/A</v>
+      <c r="Z10" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA10" t="n">
         <v>15.0</v>
@@ -5247,8 +5247,8 @@
       <c r="Y11" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z11" t="e">
-        <v>#N/A</v>
+      <c r="Z11" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA11" t="n">
         <v>0.0</v>
@@ -5354,8 +5354,8 @@
       <c r="Y12" t="n">
         <v>10.0</v>
       </c>
-      <c r="Z12" t="e">
-        <v>#N/A</v>
+      <c r="Z12" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA12" t="n">
         <v>0.0</v>
@@ -5461,8 +5461,8 @@
       <c r="Y13" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z13" t="e">
-        <v>#N/A</v>
+      <c r="Z13" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA13" t="n">
         <v>0.0</v>
@@ -5568,8 +5568,8 @@
       <c r="Y14" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z14" t="e">
-        <v>#N/A</v>
+      <c r="Z14" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA14" t="n">
         <v>0.0</v>
@@ -5675,8 +5675,8 @@
       <c r="Y15" t="n">
         <v>110.0</v>
       </c>
-      <c r="Z15" t="e">
-        <v>#N/A</v>
+      <c r="Z15" t="n">
+        <v>-30.0</v>
       </c>
       <c r="AA15" t="n">
         <v>0.0</v>
@@ -5782,8 +5782,8 @@
       <c r="Y16" t="n">
         <v>26.0</v>
       </c>
-      <c r="Z16" t="e">
-        <v>#N/A</v>
+      <c r="Z16" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA16" t="n">
         <v>0.0</v>
@@ -5889,8 +5889,8 @@
       <c r="Y17" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z17" t="e">
-        <v>#N/A</v>
+      <c r="Z17" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA17" t="n">
         <v>0.0</v>
@@ -5996,8 +5996,8 @@
       <c r="Y18" t="n">
         <v>28.0</v>
       </c>
-      <c r="Z18" t="e">
-        <v>#N/A</v>
+      <c r="Z18" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA18" t="n">
         <v>3.0</v>
@@ -6103,8 +6103,8 @@
       <c r="Y19" t="n">
         <v>90.0</v>
       </c>
-      <c r="Z19" t="e">
-        <v>#N/A</v>
+      <c r="Z19" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA19" t="n">
         <v>12.0</v>
@@ -6210,8 +6210,8 @@
       <c r="Y20" t="n">
         <v>26.0</v>
       </c>
-      <c r="Z20" t="e">
-        <v>#N/A</v>
+      <c r="Z20" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA20" t="n">
         <v>0.0</v>
@@ -6317,8 +6317,8 @@
       <c r="Y21" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z21" t="e">
-        <v>#N/A</v>
+      <c r="Z21" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA21" t="n">
         <v>0.0</v>
@@ -6531,8 +6531,8 @@
       <c r="Y23" t="n">
         <v>120.0</v>
       </c>
-      <c r="Z23" t="e">
-        <v>#N/A</v>
+      <c r="Z23" t="n">
+        <v>38.0</v>
       </c>
       <c r="AA23" t="n">
         <v>24.0</v>
@@ -6638,8 +6638,8 @@
       <c r="Y24" t="n">
         <v>84.0</v>
       </c>
-      <c r="Z24" t="e">
-        <v>#N/A</v>
+      <c r="Z24" t="n">
+        <v>16.0</v>
       </c>
       <c r="AA24" t="n">
         <v>8.0</v>
@@ -6745,8 +6745,8 @@
       <c r="Y25" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z25" t="e">
-        <v>#N/A</v>
+      <c r="Z25" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA25" t="n">
         <v>0.0</v>
@@ -6852,8 +6852,8 @@
       <c r="Y26" t="n">
         <v>96.0</v>
       </c>
-      <c r="Z26" t="e">
-        <v>#N/A</v>
+      <c r="Z26" t="n">
+        <v>22.0</v>
       </c>
       <c r="AA26" t="n">
         <v>10.0</v>
@@ -7066,8 +7066,8 @@
       <c r="Y28" t="n">
         <v>52.0</v>
       </c>
-      <c r="Z28" t="e">
-        <v>#N/A</v>
+      <c r="Z28" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA28" t="n">
         <v>3.0</v>
@@ -7173,8 +7173,8 @@
       <c r="Y29" t="n">
         <v>54.0</v>
       </c>
-      <c r="Z29" t="e">
-        <v>#N/A</v>
+      <c r="Z29" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA29" t="n">
         <v>0.0</v>
@@ -7280,8 +7280,8 @@
       <c r="Y30" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z30" t="e">
-        <v>#N/A</v>
+      <c r="Z30" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA30" t="n">
         <v>5.0</v>
@@ -7387,8 +7387,8 @@
       <c r="Y31" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z31" t="e">
-        <v>#N/A</v>
+      <c r="Z31" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA31" t="n">
         <v>0.0</v>
@@ -7494,8 +7494,8 @@
       <c r="Y32" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z32" t="e">
-        <v>#N/A</v>
+      <c r="Z32" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA32" t="n">
         <v>0.0</v>
@@ -7601,8 +7601,8 @@
       <c r="Y33" t="n">
         <v>104.0</v>
       </c>
-      <c r="Z33" t="e">
-        <v>#N/A</v>
+      <c r="Z33" t="n">
+        <v>52.0</v>
       </c>
       <c r="AA33" t="n">
         <v>0.0</v>
@@ -7708,8 +7708,8 @@
       <c r="Y34" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z34" t="e">
-        <v>#N/A</v>
+      <c r="Z34" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA34" t="n">
         <v>0.0</v>
@@ -7815,8 +7815,8 @@
       <c r="Y35" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z35" t="e">
-        <v>#N/A</v>
+      <c r="Z35" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA35" t="n">
         <v>0.0</v>
@@ -7922,8 +7922,8 @@
       <c r="Y36" t="n">
         <v>74.0</v>
       </c>
-      <c r="Z36" t="e">
-        <v>#N/A</v>
+      <c r="Z36" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA36" t="n">
         <v>4.0</v>
@@ -8029,8 +8029,8 @@
       <c r="Y37" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z37" t="e">
-        <v>#N/A</v>
+      <c r="Z37" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA37" t="n">
         <v>0.0</v>
@@ -8136,8 +8136,8 @@
       <c r="Y38" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z38" t="e">
-        <v>#N/A</v>
+      <c r="Z38" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA38" t="n">
         <v>6.0</v>
@@ -8243,8 +8243,8 @@
       <c r="Y39" t="n">
         <v>10.0</v>
       </c>
-      <c r="Z39" t="e">
-        <v>#N/A</v>
+      <c r="Z39" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA39" t="n">
         <v>0.0</v>
@@ -8350,8 +8350,8 @@
       <c r="Y40" t="n">
         <v>10.0</v>
       </c>
-      <c r="Z40" t="e">
-        <v>#N/A</v>
+      <c r="Z40" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA40" t="n">
         <v>0.0</v>
@@ -8457,8 +8457,8 @@
       <c r="Y41" t="n">
         <v>20.0</v>
       </c>
-      <c r="Z41" t="e">
-        <v>#N/A</v>
+      <c r="Z41" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA41" t="n">
         <v>0.0</v>
@@ -8564,8 +8564,8 @@
       <c r="Y42" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z42" t="e">
-        <v>#N/A</v>
+      <c r="Z42" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA42" t="n">
         <v>0.0</v>
@@ -8671,8 +8671,8 @@
       <c r="Y43" t="n">
         <v>8.0</v>
       </c>
-      <c r="Z43" t="e">
-        <v>#N/A</v>
+      <c r="Z43" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA43" t="n">
         <v>0.0</v>
@@ -8778,8 +8778,8 @@
       <c r="Y44" t="n">
         <v>26.0</v>
       </c>
-      <c r="Z44" t="e">
-        <v>#N/A</v>
+      <c r="Z44" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA44" t="n">
         <v>9.0</v>
@@ -8885,8 +8885,8 @@
       <c r="Y45" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z45" t="e">
-        <v>#N/A</v>
+      <c r="Z45" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA45" t="n">
         <v>0.0</v>
@@ -9099,8 +9099,8 @@
       <c r="Y47" t="n">
         <v>98.0</v>
       </c>
-      <c r="Z47" t="e">
-        <v>#N/A</v>
+      <c r="Z47" t="n">
+        <v>-32.0</v>
       </c>
       <c r="AA47" t="n">
         <v>8.0</v>
@@ -9206,8 +9206,8 @@
       <c r="Y48" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z48" t="e">
-        <v>#N/A</v>
+      <c r="Z48" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA48" t="n">
         <v>0.0</v>
@@ -9313,8 +9313,8 @@
       <c r="Y49" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z49" t="e">
-        <v>#N/A</v>
+      <c r="Z49" t="n">
+        <v>12.0</v>
       </c>
       <c r="AA49" t="n">
         <v>16.0</v>
@@ -9420,8 +9420,8 @@
       <c r="Y50" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z50" t="e">
-        <v>#N/A</v>
+      <c r="Z50" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA50" t="n">
         <v>0.0</v>
@@ -9527,8 +9527,8 @@
       <c r="Y51" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z51" t="e">
-        <v>#N/A</v>
+      <c r="Z51" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA51" t="n">
         <v>0.0</v>
@@ -9634,8 +9634,8 @@
       <c r="Y52" t="n">
         <v>92.0</v>
       </c>
-      <c r="Z52" t="e">
-        <v>#N/A</v>
+      <c r="Z52" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA52" t="n">
         <v>24.0</v>
@@ -9741,8 +9741,8 @@
       <c r="Y53" t="n">
         <v>66.0</v>
       </c>
-      <c r="Z53" t="e">
-        <v>#N/A</v>
+      <c r="Z53" t="n">
+        <v>14.0</v>
       </c>
       <c r="AA53" t="n">
         <v>0.0</v>
@@ -9848,8 +9848,8 @@
       <c r="Y54" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z54" t="e">
-        <v>#N/A</v>
+      <c r="Z54" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA54" t="n">
         <v>0.0</v>
@@ -9955,8 +9955,8 @@
       <c r="Y55" t="n">
         <v>52.0</v>
       </c>
-      <c r="Z55" t="e">
-        <v>#N/A</v>
+      <c r="Z55" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA55" t="n">
         <v>8.0</v>
@@ -10062,8 +10062,8 @@
       <c r="Y56" t="n">
         <v>108.0</v>
       </c>
-      <c r="Z56" t="e">
-        <v>#N/A</v>
+      <c r="Z56" t="n">
+        <v>18.0</v>
       </c>
       <c r="AA56" t="n">
         <v>5.0</v>
@@ -10276,8 +10276,8 @@
       <c r="Y58" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z58" t="e">
-        <v>#N/A</v>
+      <c r="Z58" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA58" t="n">
         <v>21.0</v>
@@ -10490,8 +10490,8 @@
       <c r="Y60" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z60" t="e">
-        <v>#N/A</v>
+      <c r="Z60" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA60" t="n">
         <v>0.0</v>
@@ -10597,8 +10597,8 @@
       <c r="Y61" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z61" t="e">
-        <v>#N/A</v>
+      <c r="Z61" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA61" t="n">
         <v>0.0</v>
@@ -10704,8 +10704,8 @@
       <c r="Y62" t="n">
         <v>122.0</v>
       </c>
-      <c r="Z62" t="e">
-        <v>#N/A</v>
+      <c r="Z62" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA62" t="n">
         <v>20.0</v>
@@ -10811,8 +10811,8 @@
       <c r="Y63" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z63" t="e">
-        <v>#N/A</v>
+      <c r="Z63" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA63" t="n">
         <v>0.0</v>
@@ -10918,8 +10918,8 @@
       <c r="Y64" t="n">
         <v>74.0</v>
       </c>
-      <c r="Z64" t="e">
-        <v>#N/A</v>
+      <c r="Z64" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA64" t="n">
         <v>8.0</v>
@@ -11025,8 +11025,8 @@
       <c r="Y65" t="n">
         <v>60.0</v>
       </c>
-      <c r="Z65" t="e">
-        <v>#N/A</v>
+      <c r="Z65" t="n">
+        <v>-20.0</v>
       </c>
       <c r="AA65" t="n">
         <v>24.0</v>
@@ -11132,8 +11132,8 @@
       <c r="Y66" t="n">
         <v>38.0</v>
       </c>
-      <c r="Z66" t="e">
-        <v>#N/A</v>
+      <c r="Z66" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA66" t="n">
         <v>0.0</v>
@@ -11239,8 +11239,8 @@
       <c r="Y67" t="n">
         <v>62.0</v>
       </c>
-      <c r="Z67" t="e">
-        <v>#N/A</v>
+      <c r="Z67" t="n">
+        <v>16.0</v>
       </c>
       <c r="AA67" t="n">
         <v>24.0</v>
@@ -11346,8 +11346,8 @@
       <c r="Y68" t="n">
         <v>46.0</v>
       </c>
-      <c r="Z68" t="e">
-        <v>#N/A</v>
+      <c r="Z68" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA68" t="n">
         <v>10.0</v>
@@ -11453,8 +11453,8 @@
       <c r="Y69" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z69" t="e">
-        <v>#N/A</v>
+      <c r="Z69" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA69" t="n">
         <v>8.0</v>
@@ -11560,8 +11560,8 @@
       <c r="Y70" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z70" t="e">
-        <v>#N/A</v>
+      <c r="Z70" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA70" t="n">
         <v>20.0</v>
@@ -11667,8 +11667,8 @@
       <c r="Y71" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z71" t="e">
-        <v>#N/A</v>
+      <c r="Z71" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA71" t="n">
         <v>0.0</v>
@@ -11774,8 +11774,8 @@
       <c r="Y72" t="n">
         <v>8.0</v>
       </c>
-      <c r="Z72" t="e">
-        <v>#N/A</v>
+      <c r="Z72" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA72" t="n">
         <v>0.0</v>
@@ -11881,8 +11881,8 @@
       <c r="Y73" t="n">
         <v>96.0</v>
       </c>
-      <c r="Z73" t="e">
-        <v>#N/A</v>
+      <c r="Z73" t="n">
+        <v>-66.0</v>
       </c>
       <c r="AA73" t="n">
         <v>3.0</v>
@@ -11988,8 +11988,8 @@
       <c r="Y74" t="n">
         <v>96.0</v>
       </c>
-      <c r="Z74" t="e">
-        <v>#N/A</v>
+      <c r="Z74" t="n">
+        <v>12.0</v>
       </c>
       <c r="AA74" t="n">
         <v>15.0</v>
@@ -12095,8 +12095,8 @@
       <c r="Y75" t="n">
         <v>30.0</v>
       </c>
-      <c r="Z75" t="e">
-        <v>#N/A</v>
+      <c r="Z75" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA75" t="n">
         <v>6.0</v>
@@ -12202,8 +12202,8 @@
       <c r="Y76" t="n">
         <v>36.0</v>
       </c>
-      <c r="Z76" t="e">
-        <v>#N/A</v>
+      <c r="Z76" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA76" t="n">
         <v>3.0</v>
@@ -12309,8 +12309,8 @@
       <c r="Y77" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z77" t="e">
-        <v>#N/A</v>
+      <c r="Z77" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA77" t="n">
         <v>0.0</v>
@@ -12416,8 +12416,8 @@
       <c r="Y78" t="n">
         <v>28.0</v>
       </c>
-      <c r="Z78" t="e">
-        <v>#N/A</v>
+      <c r="Z78" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA78" t="n">
         <v>8.0</v>
@@ -12523,8 +12523,8 @@
       <c r="Y79" t="n">
         <v>114.0</v>
       </c>
-      <c r="Z79" t="e">
-        <v>#N/A</v>
+      <c r="Z79" t="n">
+        <v>44.0</v>
       </c>
       <c r="AA79" t="n">
         <v>48.0</v>
@@ -12630,8 +12630,8 @@
       <c r="Y80" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z80" t="e">
-        <v>#N/A</v>
+      <c r="Z80" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA80" t="n">
         <v>15.0</v>
@@ -12737,8 +12737,8 @@
       <c r="Y81" t="n">
         <v>76.0</v>
       </c>
-      <c r="Z81" t="e">
-        <v>#N/A</v>
+      <c r="Z81" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA81" t="n">
         <v>0.0</v>
@@ -12844,8 +12844,8 @@
       <c r="Y82" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z82" t="e">
-        <v>#N/A</v>
+      <c r="Z82" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA82" t="n">
         <v>0.0</v>
@@ -12951,8 +12951,8 @@
       <c r="Y83" t="n">
         <v>94.0</v>
       </c>
-      <c r="Z83" t="e">
-        <v>#N/A</v>
+      <c r="Z83" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA83" t="n">
         <v>21.0</v>
@@ -13058,8 +13058,8 @@
       <c r="Y84" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z84" t="e">
-        <v>#N/A</v>
+      <c r="Z84" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA84" t="n">
         <v>0.0</v>
@@ -13165,8 +13165,8 @@
       <c r="Y85" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z85" t="e">
-        <v>#N/A</v>
+      <c r="Z85" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA85" t="n">
         <v>0.0</v>
@@ -13272,8 +13272,8 @@
       <c r="Y86" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z86" t="e">
-        <v>#N/A</v>
+      <c r="Z86" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA86" t="n">
         <v>0.0</v>
@@ -13486,8 +13486,8 @@
       <c r="Y88" t="n">
         <v>8.0</v>
       </c>
-      <c r="Z88" t="e">
-        <v>#N/A</v>
+      <c r="Z88" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA88" t="n">
         <v>0.0</v>
@@ -13593,8 +13593,8 @@
       <c r="Y89" t="n">
         <v>108.0</v>
       </c>
-      <c r="Z89" t="e">
-        <v>#N/A</v>
+      <c r="Z89" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA89" t="n">
         <v>4.0</v>
@@ -13700,8 +13700,8 @@
       <c r="Y90" t="n">
         <v>14.0</v>
       </c>
-      <c r="Z90" t="e">
-        <v>#N/A</v>
+      <c r="Z90" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA90" t="n">
         <v>0.0</v>
@@ -13807,8 +13807,8 @@
       <c r="Y91" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z91" t="e">
-        <v>#N/A</v>
+      <c r="Z91" t="n">
+        <v>32.0</v>
       </c>
       <c r="AA91" t="n">
         <v>15.0</v>
@@ -13914,8 +13914,8 @@
       <c r="Y92" t="n">
         <v>72.0</v>
       </c>
-      <c r="Z92" t="e">
-        <v>#N/A</v>
+      <c r="Z92" t="n">
+        <v>-34.0</v>
       </c>
       <c r="AA92" t="n">
         <v>4.0</v>
@@ -14021,8 +14021,8 @@
       <c r="Y93" t="n">
         <v>6.0</v>
       </c>
-      <c r="Z93" t="e">
-        <v>#N/A</v>
+      <c r="Z93" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA93" t="n">
         <v>0.0</v>
@@ -14128,8 +14128,8 @@
       <c r="Y94" t="n">
         <v>38.0</v>
       </c>
-      <c r="Z94" t="e">
-        <v>#N/A</v>
+      <c r="Z94" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA94" t="n">
         <v>0.0</v>
@@ -14235,8 +14235,8 @@
       <c r="Y95" t="n">
         <v>38.0</v>
       </c>
-      <c r="Z95" t="e">
-        <v>#N/A</v>
+      <c r="Z95" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA95" t="n">
         <v>5.0</v>
@@ -14342,8 +14342,8 @@
       <c r="Y96" t="n">
         <v>22.0</v>
       </c>
-      <c r="Z96" t="e">
-        <v>#N/A</v>
+      <c r="Z96" t="n">
+        <v>12.0</v>
       </c>
       <c r="AA96" t="n">
         <v>4.0</v>
@@ -14449,8 +14449,8 @@
       <c r="Y97" t="n">
         <v>106.0</v>
       </c>
-      <c r="Z97" t="e">
-        <v>#N/A</v>
+      <c r="Z97" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA97" t="n">
         <v>36.0</v>
@@ -14556,8 +14556,8 @@
       <c r="Y98" t="n">
         <v>78.0</v>
       </c>
-      <c r="Z98" t="e">
-        <v>#N/A</v>
+      <c r="Z98" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA98" t="n">
         <v>5.0</v>
@@ -14663,8 +14663,8 @@
       <c r="Y99" t="n">
         <v>84.0</v>
       </c>
-      <c r="Z99" t="e">
-        <v>#N/A</v>
+      <c r="Z99" t="n">
+        <v>28.0</v>
       </c>
       <c r="AA99" t="n">
         <v>20.0</v>
@@ -14770,8 +14770,8 @@
       <c r="Y100" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z100" t="e">
-        <v>#N/A</v>
+      <c r="Z100" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA100" t="n">
         <v>0.0</v>
@@ -14877,8 +14877,8 @@
       <c r="Y101" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z101" t="e">
-        <v>#N/A</v>
+      <c r="Z101" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA101" t="n">
         <v>0.0</v>
@@ -14984,8 +14984,8 @@
       <c r="Y102" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z102" t="e">
-        <v>#N/A</v>
+      <c r="Z102" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA102" t="n">
         <v>0.0</v>
@@ -15091,8 +15091,8 @@
       <c r="Y103" t="n">
         <v>70.0</v>
       </c>
-      <c r="Z103" t="e">
-        <v>#N/A</v>
+      <c r="Z103" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA103" t="n">
         <v>6.0</v>
@@ -15198,8 +15198,8 @@
       <c r="Y104" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z104" t="e">
-        <v>#N/A</v>
+      <c r="Z104" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA104" t="n">
         <v>0.0</v>
@@ -15305,8 +15305,8 @@
       <c r="Y105" t="n">
         <v>78.0</v>
       </c>
-      <c r="Z105" t="e">
-        <v>#N/A</v>
+      <c r="Z105" t="n">
+        <v>-44.0</v>
       </c>
       <c r="AA105" t="n">
         <v>8.0</v>
@@ -15412,8 +15412,8 @@
       <c r="Y106" t="n">
         <v>76.0</v>
       </c>
-      <c r="Z106" t="e">
-        <v>#N/A</v>
+      <c r="Z106" t="n">
+        <v>56.0</v>
       </c>
       <c r="AA106" t="n">
         <v>0.0</v>
@@ -15519,8 +15519,8 @@
       <c r="Y107" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z107" t="e">
-        <v>#N/A</v>
+      <c r="Z107" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA107" t="n">
         <v>4.0</v>
@@ -15626,8 +15626,8 @@
       <c r="Y108" t="n">
         <v>34.0</v>
       </c>
-      <c r="Z108" t="e">
-        <v>#N/A</v>
+      <c r="Z108" t="n">
+        <v>-32.0</v>
       </c>
       <c r="AA108" t="n">
         <v>4.0</v>
@@ -15733,8 +15733,8 @@
       <c r="Y109" t="n">
         <v>72.0</v>
       </c>
-      <c r="Z109" t="e">
-        <v>#N/A</v>
+      <c r="Z109" t="n">
+        <v>28.0</v>
       </c>
       <c r="AA109" t="n">
         <v>5.0</v>
@@ -15840,8 +15840,8 @@
       <c r="Y110" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z110" t="e">
-        <v>#N/A</v>
+      <c r="Z110" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA110" t="n">
         <v>0.0</v>
@@ -15947,8 +15947,8 @@
       <c r="Y111" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z111" t="e">
-        <v>#N/A</v>
+      <c r="Z111" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA111" t="n">
         <v>0.0</v>
@@ -16054,8 +16054,8 @@
       <c r="Y112" t="n">
         <v>108.0</v>
       </c>
-      <c r="Z112" t="e">
-        <v>#N/A</v>
+      <c r="Z112" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA112" t="n">
         <v>45.0</v>
@@ -16161,8 +16161,8 @@
       <c r="Y113" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z113" t="e">
-        <v>#N/A</v>
+      <c r="Z113" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA113" t="n">
         <v>3.0</v>
@@ -16268,8 +16268,8 @@
       <c r="Y114" t="n">
         <v>74.0</v>
       </c>
-      <c r="Z114" t="e">
-        <v>#N/A</v>
+      <c r="Z114" t="n">
+        <v>30.0</v>
       </c>
       <c r="AA114" t="n">
         <v>10.0</v>
@@ -16375,8 +16375,8 @@
       <c r="Y115" t="n">
         <v>20.0</v>
       </c>
-      <c r="Z115" t="e">
-        <v>#N/A</v>
+      <c r="Z115" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA115" t="n">
         <v>0.0</v>
@@ -16482,8 +16482,8 @@
       <c r="Y116" t="n">
         <v>72.0</v>
       </c>
-      <c r="Z116" t="e">
-        <v>#N/A</v>
+      <c r="Z116" t="n">
+        <v>-36.0</v>
       </c>
       <c r="AA116" t="n">
         <v>0.0</v>
@@ -16589,8 +16589,8 @@
       <c r="Y117" t="n">
         <v>118.0</v>
       </c>
-      <c r="Z117" t="e">
-        <v>#N/A</v>
+      <c r="Z117" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA117" t="n">
         <v>5.0</v>
@@ -16696,8 +16696,8 @@
       <c r="Y118" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z118" t="e">
-        <v>#N/A</v>
+      <c r="Z118" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA118" t="n">
         <v>0.0</v>
@@ -17017,8 +17017,8 @@
       <c r="Y121" t="n">
         <v>82.0</v>
       </c>
-      <c r="Z121" t="e">
-        <v>#N/A</v>
+      <c r="Z121" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA121" t="n">
         <v>8.0</v>
@@ -17231,8 +17231,8 @@
       <c r="Y123" t="n">
         <v>84.0</v>
       </c>
-      <c r="Z123" t="e">
-        <v>#N/A</v>
+      <c r="Z123" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA123" t="n">
         <v>0.0</v>
@@ -17338,8 +17338,8 @@
       <c r="Y124" t="n">
         <v>26.0</v>
       </c>
-      <c r="Z124" t="e">
-        <v>#N/A</v>
+      <c r="Z124" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA124" t="n">
         <v>0.0</v>
@@ -17445,8 +17445,8 @@
       <c r="Y125" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z125" t="e">
-        <v>#N/A</v>
+      <c r="Z125" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA125" t="n">
         <v>0.0</v>
@@ -17552,8 +17552,8 @@
       <c r="Y126" t="n">
         <v>124.0</v>
       </c>
-      <c r="Z126" t="e">
-        <v>#N/A</v>
+      <c r="Z126" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA126" t="n">
         <v>21.0</v>
@@ -17659,8 +17659,8 @@
       <c r="Y127" t="n">
         <v>28.0</v>
       </c>
-      <c r="Z127" t="e">
-        <v>#N/A</v>
+      <c r="Z127" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA127" t="n">
         <v>0.0</v>
@@ -17766,8 +17766,8 @@
       <c r="Y128" t="n">
         <v>36.0</v>
       </c>
-      <c r="Z128" t="e">
-        <v>#N/A</v>
+      <c r="Z128" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA128" t="n">
         <v>0.0</v>
@@ -17873,8 +17873,8 @@
       <c r="Y129" t="n">
         <v>36.0</v>
       </c>
-      <c r="Z129" t="e">
-        <v>#N/A</v>
+      <c r="Z129" t="n">
+        <v>16.0</v>
       </c>
       <c r="AA129" t="n">
         <v>0.0</v>
@@ -17980,8 +17980,8 @@
       <c r="Y130" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z130" t="e">
-        <v>#N/A</v>
+      <c r="Z130" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA130" t="n">
         <v>0.0</v>
@@ -18087,8 +18087,8 @@
       <c r="Y131" t="n">
         <v>128.0</v>
       </c>
-      <c r="Z131" t="e">
-        <v>#N/A</v>
+      <c r="Z131" t="n">
+        <v>24.0</v>
       </c>
       <c r="AA131" t="n">
         <v>42.0</v>
@@ -18194,8 +18194,8 @@
       <c r="Y132" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z132" t="e">
-        <v>#N/A</v>
+      <c r="Z132" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA132" t="n">
         <v>0.0</v>
@@ -18301,8 +18301,8 @@
       <c r="Y133" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z133" t="e">
-        <v>#N/A</v>
+      <c r="Z133" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA133" t="n">
         <v>0.0</v>
@@ -18408,8 +18408,8 @@
       <c r="Y134" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z134" t="e">
-        <v>#N/A</v>
+      <c r="Z134" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA134" t="n">
         <v>0.0</v>
@@ -18515,8 +18515,8 @@
       <c r="Y135" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z135" t="e">
-        <v>#N/A</v>
+      <c r="Z135" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA135" t="n">
         <v>5.0</v>
@@ -18622,8 +18622,8 @@
       <c r="Y136" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z136" t="e">
-        <v>#N/A</v>
+      <c r="Z136" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA136" t="n">
         <v>0.0</v>
@@ -18943,8 +18943,8 @@
       <c r="Y139" t="n">
         <v>102.0</v>
       </c>
-      <c r="Z139" t="e">
-        <v>#N/A</v>
+      <c r="Z139" t="n">
+        <v>-48.0</v>
       </c>
       <c r="AA139" t="n">
         <v>21.0</v>
@@ -19050,8 +19050,8 @@
       <c r="Y140" t="n">
         <v>58.0</v>
       </c>
-      <c r="Z140" t="e">
-        <v>#N/A</v>
+      <c r="Z140" t="n">
+        <v>-32.0</v>
       </c>
       <c r="AA140" t="n">
         <v>0.0</v>
@@ -19157,8 +19157,8 @@
       <c r="Y141" t="n">
         <v>34.0</v>
       </c>
-      <c r="Z141" t="e">
-        <v>#N/A</v>
+      <c r="Z141" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA141" t="n">
         <v>0.0</v>
@@ -19264,8 +19264,8 @@
       <c r="Y142" t="n">
         <v>90.0</v>
       </c>
-      <c r="Z142" t="e">
-        <v>#N/A</v>
+      <c r="Z142" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA142" t="n">
         <v>16.0</v>
@@ -19371,8 +19371,8 @@
       <c r="Y143" t="n">
         <v>6.0</v>
       </c>
-      <c r="Z143" t="e">
-        <v>#N/A</v>
+      <c r="Z143" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA143" t="n">
         <v>0.0</v>
@@ -19478,8 +19478,8 @@
       <c r="Y144" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z144" t="e">
-        <v>#N/A</v>
+      <c r="Z144" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA144" t="n">
         <v>0.0</v>
@@ -19585,8 +19585,8 @@
       <c r="Y145" t="n">
         <v>122.0</v>
       </c>
-      <c r="Z145" t="e">
-        <v>#N/A</v>
+      <c r="Z145" t="n">
+        <v>-20.0</v>
       </c>
       <c r="AA145" t="n">
         <v>5.0</v>
@@ -19692,8 +19692,8 @@
       <c r="Y146" t="n">
         <v>102.0</v>
       </c>
-      <c r="Z146" t="e">
-        <v>#N/A</v>
+      <c r="Z146" t="n">
+        <v>42.0</v>
       </c>
       <c r="AA146" t="n">
         <v>0.0</v>
@@ -19799,8 +19799,8 @@
       <c r="Y147" t="n">
         <v>62.0</v>
       </c>
-      <c r="Z147" t="e">
-        <v>#N/A</v>
+      <c r="Z147" t="n">
+        <v>12.0</v>
       </c>
       <c r="AA147" t="n">
         <v>0.0</v>
@@ -19906,8 +19906,8 @@
       <c r="Y148" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z148" t="e">
-        <v>#N/A</v>
+      <c r="Z148" t="n">
+        <v>40.0</v>
       </c>
       <c r="AA148" t="n">
         <v>25.0</v>
@@ -20013,8 +20013,8 @@
       <c r="Y149" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z149" t="e">
-        <v>#N/A</v>
+      <c r="Z149" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA149" t="n">
         <v>3.0</v>
@@ -20120,8 +20120,8 @@
       <c r="Y150" t="n">
         <v>98.0</v>
       </c>
-      <c r="Z150" t="e">
-        <v>#N/A</v>
+      <c r="Z150" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA150" t="n">
         <v>0.0</v>
@@ -20227,8 +20227,8 @@
       <c r="Y151" t="n">
         <v>112.0</v>
       </c>
-      <c r="Z151" t="e">
-        <v>#N/A</v>
+      <c r="Z151" t="n">
+        <v>10.0</v>
       </c>
       <c r="AA151" t="n">
         <v>8.0</v>
@@ -20334,8 +20334,8 @@
       <c r="Y152" t="n">
         <v>132.0</v>
       </c>
-      <c r="Z152" t="e">
-        <v>#N/A</v>
+      <c r="Z152" t="n">
+        <v>54.0</v>
       </c>
       <c r="AA152" t="n">
         <v>8.0</v>
@@ -20441,8 +20441,8 @@
       <c r="Y153" t="n">
         <v>26.0</v>
       </c>
-      <c r="Z153" t="e">
-        <v>#N/A</v>
+      <c r="Z153" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA153" t="n">
         <v>5.0</v>
@@ -20548,8 +20548,8 @@
       <c r="Y154" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z154" t="e">
-        <v>#N/A</v>
+      <c r="Z154" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA154" t="n">
         <v>0.0</v>
@@ -20655,8 +20655,8 @@
       <c r="Y155" t="n">
         <v>82.0</v>
       </c>
-      <c r="Z155" t="e">
-        <v>#N/A</v>
+      <c r="Z155" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA155" t="n">
         <v>5.0</v>
@@ -20762,8 +20762,8 @@
       <c r="Y156" t="n">
         <v>54.0</v>
       </c>
-      <c r="Z156" t="e">
-        <v>#N/A</v>
+      <c r="Z156" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA156" t="n">
         <v>0.0</v>
@@ -20869,8 +20869,8 @@
       <c r="Y157" t="n">
         <v>72.0</v>
       </c>
-      <c r="Z157" t="e">
-        <v>#N/A</v>
+      <c r="Z157" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA157" t="n">
         <v>5.0</v>
@@ -20976,8 +20976,8 @@
       <c r="Y158" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z158" t="e">
-        <v>#N/A</v>
+      <c r="Z158" t="n">
+        <v>-20.0</v>
       </c>
       <c r="AA158" t="n">
         <v>4.0</v>
@@ -21083,8 +21083,8 @@
       <c r="Y159" t="n">
         <v>64.0</v>
       </c>
-      <c r="Z159" t="e">
-        <v>#N/A</v>
+      <c r="Z159" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA159" t="n">
         <v>5.0</v>
@@ -21297,8 +21297,8 @@
       <c r="Y161" t="n">
         <v>108.0</v>
       </c>
-      <c r="Z161" t="e">
-        <v>#N/A</v>
+      <c r="Z161" t="n">
+        <v>-34.0</v>
       </c>
       <c r="AA161" t="n">
         <v>20.0</v>
@@ -21404,8 +21404,8 @@
       <c r="Y162" t="n">
         <v>128.0</v>
       </c>
-      <c r="Z162" t="e">
-        <v>#N/A</v>
+      <c r="Z162" t="n">
+        <v>-30.0</v>
       </c>
       <c r="AA162" t="n">
         <v>0.0</v>
@@ -21511,8 +21511,8 @@
       <c r="Y163" t="n">
         <v>120.0</v>
       </c>
-      <c r="Z163" t="e">
-        <v>#N/A</v>
+      <c r="Z163" t="n">
+        <v>54.0</v>
       </c>
       <c r="AA163" t="n">
         <v>10.0</v>
@@ -21618,8 +21618,8 @@
       <c r="Y164" t="n">
         <v>106.0</v>
       </c>
-      <c r="Z164" t="e">
-        <v>#N/A</v>
+      <c r="Z164" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA164" t="n">
         <v>24.0</v>
@@ -21725,8 +21725,8 @@
       <c r="Y165" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z165" t="e">
-        <v>#N/A</v>
+      <c r="Z165" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA165" t="n">
         <v>0.0</v>
@@ -21832,8 +21832,8 @@
       <c r="Y166" t="n">
         <v>80.0</v>
       </c>
-      <c r="Z166" t="e">
-        <v>#N/A</v>
+      <c r="Z166" t="n">
+        <v>34.0</v>
       </c>
       <c r="AA166" t="n">
         <v>28.0</v>
@@ -21939,8 +21939,8 @@
       <c r="Y167" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z167" t="e">
-        <v>#N/A</v>
+      <c r="Z167" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA167" t="n">
         <v>0.0</v>
@@ -22046,8 +22046,8 @@
       <c r="Y168" t="n">
         <v>78.0</v>
       </c>
-      <c r="Z168" t="e">
-        <v>#N/A</v>
+      <c r="Z168" t="n">
+        <v>14.0</v>
       </c>
       <c r="AA168" t="n">
         <v>16.0</v>
@@ -22474,8 +22474,8 @@
       <c r="Y172" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z172" t="e">
-        <v>#N/A</v>
+      <c r="Z172" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA172" t="n">
         <v>0.0</v>
@@ -22581,8 +22581,8 @@
       <c r="Y173" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z173" t="e">
-        <v>#N/A</v>
+      <c r="Z173" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA173" t="n">
         <v>0.0</v>
@@ -22688,8 +22688,8 @@
       <c r="Y174" t="n">
         <v>50.0</v>
       </c>
-      <c r="Z174" t="e">
-        <v>#N/A</v>
+      <c r="Z174" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA174" t="n">
         <v>6.0</v>
@@ -22795,8 +22795,8 @@
       <c r="Y175" t="n">
         <v>130.0</v>
       </c>
-      <c r="Z175" t="e">
-        <v>#N/A</v>
+      <c r="Z175" t="n">
+        <v>14.0</v>
       </c>
       <c r="AA175" t="n">
         <v>32.0</v>
@@ -23009,8 +23009,8 @@
       <c r="Y177" t="n">
         <v>126.0</v>
       </c>
-      <c r="Z177" t="e">
-        <v>#N/A</v>
+      <c r="Z177" t="n">
+        <v>20.0</v>
       </c>
       <c r="AA177" t="n">
         <v>10.0</v>
@@ -23116,8 +23116,8 @@
       <c r="Y178" t="n">
         <v>86.0</v>
       </c>
-      <c r="Z178" t="e">
-        <v>#N/A</v>
+      <c r="Z178" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA178" t="n">
         <v>18.0</v>
@@ -23223,8 +23223,8 @@
       <c r="Y179" t="n">
         <v>84.0</v>
       </c>
-      <c r="Z179" t="e">
-        <v>#N/A</v>
+      <c r="Z179" t="n">
+        <v>16.0</v>
       </c>
       <c r="AA179" t="n">
         <v>20.0</v>
@@ -23330,8 +23330,8 @@
       <c r="Y180" t="n">
         <v>92.0</v>
       </c>
-      <c r="Z180" t="e">
-        <v>#N/A</v>
+      <c r="Z180" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA180" t="n">
         <v>18.0</v>
@@ -23544,8 +23544,8 @@
       <c r="Y182" t="n">
         <v>120.0</v>
       </c>
-      <c r="Z182" t="e">
-        <v>#N/A</v>
+      <c r="Z182" t="n">
+        <v>102.0</v>
       </c>
       <c r="AA182" t="n">
         <v>0.0</v>
@@ -23651,8 +23651,8 @@
       <c r="Y183" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z183" t="e">
-        <v>#N/A</v>
+      <c r="Z183" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA183" t="n">
         <v>0.0</v>
@@ -23758,8 +23758,8 @@
       <c r="Y184" t="n">
         <v>112.0</v>
       </c>
-      <c r="Z184" t="e">
-        <v>#N/A</v>
+      <c r="Z184" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA184" t="n">
         <v>10.0</v>
@@ -23865,8 +23865,8 @@
       <c r="Y185" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z185" t="e">
-        <v>#N/A</v>
+      <c r="Z185" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA185" t="n">
         <v>5.0</v>
@@ -23972,8 +23972,8 @@
       <c r="Y186" t="n">
         <v>98.0</v>
       </c>
-      <c r="Z186" t="e">
-        <v>#N/A</v>
+      <c r="Z186" t="n">
+        <v>-32.0</v>
       </c>
       <c r="AA186" t="n">
         <v>0.0</v>
@@ -24079,8 +24079,8 @@
       <c r="Y187" t="n">
         <v>120.0</v>
       </c>
-      <c r="Z187" t="e">
-        <v>#N/A</v>
+      <c r="Z187" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA187" t="n">
         <v>16.0</v>
@@ -24186,8 +24186,8 @@
       <c r="Y188" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z188" t="e">
-        <v>#N/A</v>
+      <c r="Z188" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA188" t="n">
         <v>0.0</v>
@@ -24293,8 +24293,8 @@
       <c r="Y189" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z189" t="e">
-        <v>#N/A</v>
+      <c r="Z189" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA189" t="n">
         <v>5.0</v>
@@ -24400,8 +24400,8 @@
       <c r="Y190" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z190" t="e">
-        <v>#N/A</v>
+      <c r="Z190" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA190" t="n">
         <v>0.0</v>
@@ -24507,8 +24507,8 @@
       <c r="Y191" t="n">
         <v>86.0</v>
       </c>
-      <c r="Z191" t="e">
-        <v>#N/A</v>
+      <c r="Z191" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA191" t="n">
         <v>24.0</v>
@@ -24614,8 +24614,8 @@
       <c r="Y192" t="n">
         <v>70.0</v>
       </c>
-      <c r="Z192" t="e">
-        <v>#N/A</v>
+      <c r="Z192" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA192" t="n">
         <v>0.0</v>
@@ -24721,8 +24721,8 @@
       <c r="Y193" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z193" t="e">
-        <v>#N/A</v>
+      <c r="Z193" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA193" t="n">
         <v>0.0</v>
@@ -24828,8 +24828,8 @@
       <c r="Y194" t="n">
         <v>50.0</v>
       </c>
-      <c r="Z194" t="e">
-        <v>#N/A</v>
+      <c r="Z194" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA194" t="n">
         <v>0.0</v>
@@ -24935,8 +24935,8 @@
       <c r="Y195" t="n">
         <v>14.0</v>
       </c>
-      <c r="Z195" t="e">
-        <v>#N/A</v>
+      <c r="Z195" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA195" t="n">
         <v>0.0</v>
@@ -25042,8 +25042,8 @@
       <c r="Y196" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z196" t="e">
-        <v>#N/A</v>
+      <c r="Z196" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA196" t="n">
         <v>0.0</v>
@@ -25149,8 +25149,8 @@
       <c r="Y197" t="n">
         <v>120.0</v>
       </c>
-      <c r="Z197" t="e">
-        <v>#N/A</v>
+      <c r="Z197" t="n">
+        <v>66.0</v>
       </c>
       <c r="AA197" t="n">
         <v>10.0</v>
@@ -25256,8 +25256,8 @@
       <c r="Y198" t="n">
         <v>98.0</v>
       </c>
-      <c r="Z198" t="e">
-        <v>#N/A</v>
+      <c r="Z198" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA198" t="n">
         <v>24.0</v>
@@ -25363,8 +25363,8 @@
       <c r="Y199" t="n">
         <v>30.0</v>
       </c>
-      <c r="Z199" t="e">
-        <v>#N/A</v>
+      <c r="Z199" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA199" t="n">
         <v>8.0</v>
@@ -25577,8 +25577,8 @@
       <c r="Y201" t="n">
         <v>76.0</v>
       </c>
-      <c r="Z201" t="e">
-        <v>#N/A</v>
+      <c r="Z201" t="n">
+        <v>-56.0</v>
       </c>
       <c r="AA201" t="n">
         <v>0.0</v>
@@ -25684,8 +25684,8 @@
       <c r="Y202" t="n">
         <v>70.0</v>
       </c>
-      <c r="Z202" t="e">
-        <v>#N/A</v>
+      <c r="Z202" t="n">
+        <v>-20.0</v>
       </c>
       <c r="AA202" t="n">
         <v>6.0</v>
@@ -25791,8 +25791,8 @@
       <c r="Y203" t="n">
         <v>54.0</v>
       </c>
-      <c r="Z203" t="e">
-        <v>#N/A</v>
+      <c r="Z203" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA203" t="n">
         <v>0.0</v>
@@ -25898,8 +25898,8 @@
       <c r="Y204" t="n">
         <v>74.0</v>
       </c>
-      <c r="Z204" t="e">
-        <v>#N/A</v>
+      <c r="Z204" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA204" t="n">
         <v>16.0</v>
@@ -26005,8 +26005,8 @@
       <c r="Y205" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z205" t="e">
-        <v>#N/A</v>
+      <c r="Z205" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA205" t="n">
         <v>15.0</v>
@@ -26112,8 +26112,8 @@
       <c r="Y206" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z206" t="e">
-        <v>#N/A</v>
+      <c r="Z206" t="n">
+        <v>38.0</v>
       </c>
       <c r="AA206" t="n">
         <v>0.0</v>
@@ -26219,8 +26219,8 @@
       <c r="Y207" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z207" t="e">
-        <v>#N/A</v>
+      <c r="Z207" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA207" t="n">
         <v>0.0</v>
@@ -26326,8 +26326,8 @@
       <c r="Y208" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z208" t="e">
-        <v>#N/A</v>
+      <c r="Z208" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA208" t="n">
         <v>0.0</v>
@@ -26433,8 +26433,8 @@
       <c r="Y209" t="n">
         <v>54.0</v>
       </c>
-      <c r="Z209" t="e">
-        <v>#N/A</v>
+      <c r="Z209" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA209" t="n">
         <v>0.0</v>
@@ -26540,8 +26540,8 @@
       <c r="Y210" t="n">
         <v>104.0</v>
       </c>
-      <c r="Z210" t="e">
-        <v>#N/A</v>
+      <c r="Z210" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA210" t="n">
         <v>18.0</v>
@@ -26647,8 +26647,8 @@
       <c r="Y211" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z211" t="e">
-        <v>#N/A</v>
+      <c r="Z211" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA211" t="n">
         <v>0.0</v>
@@ -26754,8 +26754,8 @@
       <c r="Y212" t="n">
         <v>54.0</v>
       </c>
-      <c r="Z212" t="e">
-        <v>#N/A</v>
+      <c r="Z212" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA212" t="n">
         <v>18.0</v>
@@ -26968,8 +26968,8 @@
       <c r="Y214" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z214" t="e">
-        <v>#N/A</v>
+      <c r="Z214" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA214" t="n">
         <v>0.0</v>
@@ -27182,8 +27182,8 @@
       <c r="Y216" t="n">
         <v>82.0</v>
       </c>
-      <c r="Z216" t="e">
-        <v>#N/A</v>
+      <c r="Z216" t="n">
+        <v>-50.0</v>
       </c>
       <c r="AA216" t="n">
         <v>0.0</v>
@@ -27289,8 +27289,8 @@
       <c r="Y217" t="n">
         <v>98.0</v>
       </c>
-      <c r="Z217" t="e">
-        <v>#N/A</v>
+      <c r="Z217" t="n">
+        <v>-38.0</v>
       </c>
       <c r="AA217" t="n">
         <v>6.0</v>
@@ -27503,8 +27503,8 @@
       <c r="Y219" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z219" t="e">
-        <v>#N/A</v>
+      <c r="Z219" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA219" t="n">
         <v>0.0</v>
@@ -27610,8 +27610,8 @@
       <c r="Y220" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z220" t="e">
-        <v>#N/A</v>
+      <c r="Z220" t="n">
+        <v>-30.0</v>
       </c>
       <c r="AA220" t="n">
         <v>0.0</v>
@@ -27717,8 +27717,8 @@
       <c r="Y221" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z221" t="e">
-        <v>#N/A</v>
+      <c r="Z221" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA221" t="n">
         <v>0.0</v>
@@ -27824,8 +27824,8 @@
       <c r="Y222" t="n">
         <v>14.0</v>
       </c>
-      <c r="Z222" t="e">
-        <v>#N/A</v>
+      <c r="Z222" t="n">
+        <v>10.0</v>
       </c>
       <c r="AA222" t="n">
         <v>0.0</v>
@@ -27931,8 +27931,8 @@
       <c r="Y223" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z223" t="e">
-        <v>#N/A</v>
+      <c r="Z223" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA223" t="n">
         <v>0.0</v>
@@ -28038,8 +28038,8 @@
       <c r="Y224" t="n">
         <v>34.0</v>
       </c>
-      <c r="Z224" t="e">
-        <v>#N/A</v>
+      <c r="Z224" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA224" t="n">
         <v>0.0</v>
@@ -28145,8 +28145,8 @@
       <c r="Y225" t="n">
         <v>42.0</v>
       </c>
-      <c r="Z225" t="e">
-        <v>#N/A</v>
+      <c r="Z225" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA225" t="n">
         <v>0.0</v>
@@ -28252,8 +28252,8 @@
       <c r="Y226" t="n">
         <v>74.0</v>
       </c>
-      <c r="Z226" t="e">
-        <v>#N/A</v>
+      <c r="Z226" t="n">
+        <v>20.0</v>
       </c>
       <c r="AA226" t="n">
         <v>0.0</v>
@@ -28359,8 +28359,8 @@
       <c r="Y227" t="n">
         <v>80.0</v>
       </c>
-      <c r="Z227" t="e">
-        <v>#N/A</v>
+      <c r="Z227" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA227" t="n">
         <v>12.0</v>
@@ -28466,8 +28466,8 @@
       <c r="Y228" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z228" t="e">
-        <v>#N/A</v>
+      <c r="Z228" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA228" t="n">
         <v>0.0</v>
@@ -28573,8 +28573,8 @@
       <c r="Y229" t="n">
         <v>46.0</v>
       </c>
-      <c r="Z229" t="e">
-        <v>#N/A</v>
+      <c r="Z229" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA229" t="n">
         <v>0.0</v>
@@ -28680,8 +28680,8 @@
       <c r="Y230" t="n">
         <v>34.0</v>
       </c>
-      <c r="Z230" t="e">
-        <v>#N/A</v>
+      <c r="Z230" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA230" t="n">
         <v>0.0</v>
@@ -28787,8 +28787,8 @@
       <c r="Y231" t="n">
         <v>56.0</v>
       </c>
-      <c r="Z231" t="e">
-        <v>#N/A</v>
+      <c r="Z231" t="n">
+        <v>-32.0</v>
       </c>
       <c r="AA231" t="n">
         <v>0.0</v>
@@ -28894,8 +28894,8 @@
       <c r="Y232" t="n">
         <v>60.0</v>
       </c>
-      <c r="Z232" t="e">
-        <v>#N/A</v>
+      <c r="Z232" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA232" t="n">
         <v>0.0</v>
@@ -29001,8 +29001,8 @@
       <c r="Y233" t="n">
         <v>36.0</v>
       </c>
-      <c r="Z233" t="e">
-        <v>#N/A</v>
+      <c r="Z233" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA233" t="n">
         <v>3.0</v>
@@ -29108,8 +29108,8 @@
       <c r="Y234" t="n">
         <v>66.0</v>
       </c>
-      <c r="Z234" t="e">
-        <v>#N/A</v>
+      <c r="Z234" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA234" t="n">
         <v>15.0</v>
@@ -29215,8 +29215,8 @@
       <c r="Y235" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z235" t="e">
-        <v>#N/A</v>
+      <c r="Z235" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA235" t="n">
         <v>0.0</v>
@@ -29322,8 +29322,8 @@
       <c r="Y236" t="n">
         <v>10.0</v>
       </c>
-      <c r="Z236" t="e">
-        <v>#N/A</v>
+      <c r="Z236" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA236" t="n">
         <v>3.0</v>
@@ -29429,8 +29429,8 @@
       <c r="Y237" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z237" t="e">
-        <v>#N/A</v>
+      <c r="Z237" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA237" t="n">
         <v>0.0</v>
@@ -29536,8 +29536,8 @@
       <c r="Y238" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z238" t="e">
-        <v>#N/A</v>
+      <c r="Z238" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA238" t="n">
         <v>0.0</v>
@@ -29643,8 +29643,8 @@
       <c r="Y239" t="n">
         <v>84.0</v>
       </c>
-      <c r="Z239" t="e">
-        <v>#N/A</v>
+      <c r="Z239" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA239" t="n">
         <v>10.0</v>
@@ -29750,8 +29750,8 @@
       <c r="Y240" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z240" t="e">
-        <v>#N/A</v>
+      <c r="Z240" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA240" t="n">
         <v>0.0</v>
@@ -29857,8 +29857,8 @@
       <c r="Y241" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z241" t="e">
-        <v>#N/A</v>
+      <c r="Z241" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA241" t="n">
         <v>4.0</v>
@@ -30071,8 +30071,8 @@
       <c r="Y243" t="n">
         <v>126.0</v>
       </c>
-      <c r="Z243" t="e">
-        <v>#N/A</v>
+      <c r="Z243" t="n">
+        <v>12.0</v>
       </c>
       <c r="AA243" t="n">
         <v>8.0</v>
@@ -30178,8 +30178,8 @@
       <c r="Y244" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z244" t="e">
-        <v>#N/A</v>
+      <c r="Z244" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA244" t="n">
         <v>0.0</v>
@@ -30285,8 +30285,8 @@
       <c r="Y245" t="n">
         <v>34.0</v>
       </c>
-      <c r="Z245" t="e">
-        <v>#N/A</v>
+      <c r="Z245" t="n">
+        <v>16.0</v>
       </c>
       <c r="AA245" t="n">
         <v>0.0</v>
@@ -30392,8 +30392,8 @@
       <c r="Y246" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z246" t="e">
-        <v>#N/A</v>
+      <c r="Z246" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA246" t="n">
         <v>0.0</v>
@@ -30606,8 +30606,8 @@
       <c r="Y248" t="n">
         <v>26.0</v>
       </c>
-      <c r="Z248" t="e">
-        <v>#N/A</v>
+      <c r="Z248" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA248" t="n">
         <v>0.0</v>
@@ -30713,8 +30713,8 @@
       <c r="Y249" t="n">
         <v>20.0</v>
       </c>
-      <c r="Z249" t="e">
-        <v>#N/A</v>
+      <c r="Z249" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA249" t="n">
         <v>4.0</v>
@@ -30820,8 +30820,8 @@
       <c r="Y250" t="n">
         <v>16.0</v>
       </c>
-      <c r="Z250" t="e">
-        <v>#N/A</v>
+      <c r="Z250" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA250" t="n">
         <v>0.0</v>
@@ -30927,8 +30927,8 @@
       <c r="Y251" t="n">
         <v>52.0</v>
       </c>
-      <c r="Z251" t="e">
-        <v>#N/A</v>
+      <c r="Z251" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA251" t="n">
         <v>4.0</v>
@@ -31034,8 +31034,8 @@
       <c r="Y252" t="n">
         <v>60.0</v>
       </c>
-      <c r="Z252" t="e">
-        <v>#N/A</v>
+      <c r="Z252" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA252" t="n">
         <v>8.0</v>
@@ -31141,8 +31141,8 @@
       <c r="Y253" t="n">
         <v>130.0</v>
       </c>
-      <c r="Z253" t="e">
-        <v>#N/A</v>
+      <c r="Z253" t="n">
+        <v>100.0</v>
       </c>
       <c r="AA253" t="n">
         <v>15.0</v>
@@ -31248,8 +31248,8 @@
       <c r="Y254" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z254" t="e">
-        <v>#N/A</v>
+      <c r="Z254" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA254" t="n">
         <v>0.0</v>
@@ -31355,8 +31355,8 @@
       <c r="Y255" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z255" t="e">
-        <v>#N/A</v>
+      <c r="Z255" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA255" t="n">
         <v>0.0</v>
@@ -31569,8 +31569,8 @@
       <c r="Y257" t="n">
         <v>96.0</v>
       </c>
-      <c r="Z257" t="e">
-        <v>#N/A</v>
+      <c r="Z257" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA257" t="n">
         <v>5.0</v>
@@ -31676,8 +31676,8 @@
       <c r="Y258" t="n">
         <v>96.0</v>
       </c>
-      <c r="Z258" t="e">
-        <v>#N/A</v>
+      <c r="Z258" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA258" t="n">
         <v>16.0</v>
@@ -31783,8 +31783,8 @@
       <c r="Y259" t="n">
         <v>106.0</v>
       </c>
-      <c r="Z259" t="e">
-        <v>#N/A</v>
+      <c r="Z259" t="n">
+        <v>-54.0</v>
       </c>
       <c r="AA259" t="n">
         <v>0.0</v>
@@ -31997,8 +31997,8 @@
       <c r="Y261" t="n">
         <v>112.0</v>
       </c>
-      <c r="Z261" t="e">
-        <v>#N/A</v>
+      <c r="Z261" t="n">
+        <v>20.0</v>
       </c>
       <c r="AA261" t="n">
         <v>10.0</v>
@@ -32104,8 +32104,8 @@
       <c r="Y262" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z262" t="e">
-        <v>#N/A</v>
+      <c r="Z262" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA262" t="n">
         <v>0.0</v>
@@ -32211,8 +32211,8 @@
       <c r="Y263" t="n">
         <v>72.0</v>
       </c>
-      <c r="Z263" t="e">
-        <v>#N/A</v>
+      <c r="Z263" t="n">
+        <v>-34.0</v>
       </c>
       <c r="AA263" t="n">
         <v>0.0</v>
@@ -32318,8 +32318,8 @@
       <c r="Y264" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z264" t="e">
-        <v>#N/A</v>
+      <c r="Z264" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA264" t="n">
         <v>0.0</v>
@@ -32425,8 +32425,8 @@
       <c r="Y265" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z265" t="e">
-        <v>#N/A</v>
+      <c r="Z265" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA265" t="n">
         <v>0.0</v>
@@ -32532,8 +32532,8 @@
       <c r="Y266" t="n">
         <v>50.0</v>
       </c>
-      <c r="Z266" t="e">
-        <v>#N/A</v>
+      <c r="Z266" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA266" t="n">
         <v>0.0</v>
@@ -32639,8 +32639,8 @@
       <c r="Y267" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z267" t="e">
-        <v>#N/A</v>
+      <c r="Z267" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA267" t="n">
         <v>0.0</v>
@@ -32746,8 +32746,8 @@
       <c r="Y268" t="n">
         <v>20.0</v>
       </c>
-      <c r="Z268" t="e">
-        <v>#N/A</v>
+      <c r="Z268" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA268" t="n">
         <v>0.0</v>
@@ -33174,8 +33174,8 @@
       <c r="Y272" t="n">
         <v>62.0</v>
       </c>
-      <c r="Z272" t="e">
-        <v>#N/A</v>
+      <c r="Z272" t="n">
+        <v>14.0</v>
       </c>
       <c r="AA272" t="n">
         <v>5.0</v>
@@ -33281,8 +33281,8 @@
       <c r="Y273" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z273" t="e">
-        <v>#N/A</v>
+      <c r="Z273" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA273" t="n">
         <v>0.0</v>
@@ -33388,8 +33388,8 @@
       <c r="Y274" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z274" t="e">
-        <v>#N/A</v>
+      <c r="Z274" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA274" t="n">
         <v>0.0</v>
@@ -33495,8 +33495,8 @@
       <c r="Y275" t="n">
         <v>14.0</v>
       </c>
-      <c r="Z275" t="e">
-        <v>#N/A</v>
+      <c r="Z275" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA275" t="n">
         <v>0.0</v>
@@ -33602,8 +33602,8 @@
       <c r="Y276" t="n">
         <v>82.0</v>
       </c>
-      <c r="Z276" t="e">
-        <v>#N/A</v>
+      <c r="Z276" t="n">
+        <v>-34.0</v>
       </c>
       <c r="AA276" t="n">
         <v>10.0</v>
@@ -33709,8 +33709,8 @@
       <c r="Y277" t="n">
         <v>50.0</v>
       </c>
-      <c r="Z277" t="e">
-        <v>#N/A</v>
+      <c r="Z277" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA277" t="n">
         <v>8.0</v>
@@ -33816,8 +33816,8 @@
       <c r="Y278" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z278" t="e">
-        <v>#N/A</v>
+      <c r="Z278" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA278" t="n">
         <v>0.0</v>
@@ -33923,8 +33923,8 @@
       <c r="Y279" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z279" t="e">
-        <v>#N/A</v>
+      <c r="Z279" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA279" t="n">
         <v>25.0</v>
@@ -34030,8 +34030,8 @@
       <c r="Y280" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z280" t="e">
-        <v>#N/A</v>
+      <c r="Z280" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA280" t="n">
         <v>0.0</v>
@@ -34137,8 +34137,8 @@
       <c r="Y281" t="n">
         <v>44.0</v>
       </c>
-      <c r="Z281" t="e">
-        <v>#N/A</v>
+      <c r="Z281" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA281" t="n">
         <v>9.0</v>
@@ -34244,8 +34244,8 @@
       <c r="Y282" t="n">
         <v>94.0</v>
       </c>
-      <c r="Z282" t="e">
-        <v>#N/A</v>
+      <c r="Z282" t="n">
+        <v>24.0</v>
       </c>
       <c r="AA282" t="n">
         <v>44.0</v>
@@ -34351,8 +34351,8 @@
       <c r="Y283" t="n">
         <v>64.0</v>
       </c>
-      <c r="Z283" t="e">
-        <v>#N/A</v>
+      <c r="Z283" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA283" t="n">
         <v>5.0</v>
@@ -34458,8 +34458,8 @@
       <c r="Y284" t="n">
         <v>60.0</v>
       </c>
-      <c r="Z284" t="e">
-        <v>#N/A</v>
+      <c r="Z284" t="n">
+        <v>22.0</v>
       </c>
       <c r="AA284" t="n">
         <v>0.0</v>
@@ -34565,8 +34565,8 @@
       <c r="Y285" t="n">
         <v>96.0</v>
       </c>
-      <c r="Z285" t="e">
-        <v>#N/A</v>
+      <c r="Z285" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA285" t="n">
         <v>8.0</v>
@@ -34672,8 +34672,8 @@
       <c r="Y286" t="n">
         <v>54.0</v>
       </c>
-      <c r="Z286" t="e">
-        <v>#N/A</v>
+      <c r="Z286" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA286" t="n">
         <v>5.0</v>
@@ -34779,8 +34779,8 @@
       <c r="Y287" t="n">
         <v>122.0</v>
       </c>
-      <c r="Z287" t="e">
-        <v>#N/A</v>
+      <c r="Z287" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA287" t="n">
         <v>12.0</v>
@@ -34886,8 +34886,8 @@
       <c r="Y288" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z288" t="e">
-        <v>#N/A</v>
+      <c r="Z288" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA288" t="n">
         <v>5.0</v>
@@ -34993,8 +34993,8 @@
       <c r="Y289" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z289" t="e">
-        <v>#N/A</v>
+      <c r="Z289" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA289" t="n">
         <v>0.0</v>
@@ -35100,8 +35100,8 @@
       <c r="Y290" t="n">
         <v>98.0</v>
       </c>
-      <c r="Z290" t="e">
-        <v>#N/A</v>
+      <c r="Z290" t="n">
+        <v>12.0</v>
       </c>
       <c r="AA290" t="n">
         <v>6.0</v>
@@ -35314,8 +35314,8 @@
       <c r="Y292" t="n">
         <v>28.0</v>
       </c>
-      <c r="Z292" t="e">
-        <v>#N/A</v>
+      <c r="Z292" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA292" t="n">
         <v>3.0</v>
@@ -35421,8 +35421,8 @@
       <c r="Y293" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z293" t="e">
-        <v>#N/A</v>
+      <c r="Z293" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA293" t="n">
         <v>0.0</v>
@@ -35528,8 +35528,8 @@
       <c r="Y294" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z294" t="e">
-        <v>#N/A</v>
+      <c r="Z294" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA294" t="n">
         <v>0.0</v>
@@ -35635,8 +35635,8 @@
       <c r="Y295" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z295" t="e">
-        <v>#N/A</v>
+      <c r="Z295" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA295" t="n">
         <v>0.0</v>
@@ -35742,8 +35742,8 @@
       <c r="Y296" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z296" t="e">
-        <v>#N/A</v>
+      <c r="Z296" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA296" t="n">
         <v>0.0</v>
@@ -35849,8 +35849,8 @@
       <c r="Y297" t="n">
         <v>82.0</v>
       </c>
-      <c r="Z297" t="e">
-        <v>#N/A</v>
+      <c r="Z297" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA297" t="n">
         <v>0.0</v>
@@ -35956,8 +35956,8 @@
       <c r="Y298" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z298" t="e">
-        <v>#N/A</v>
+      <c r="Z298" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA298" t="n">
         <v>0.0</v>
@@ -36170,8 +36170,8 @@
       <c r="Y300" t="n">
         <v>8.0</v>
       </c>
-      <c r="Z300" t="e">
-        <v>#N/A</v>
+      <c r="Z300" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA300" t="n">
         <v>0.0</v>
@@ -36277,8 +36277,8 @@
       <c r="Y301" t="n">
         <v>38.0</v>
       </c>
-      <c r="Z301" t="e">
-        <v>#N/A</v>
+      <c r="Z301" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA301" t="n">
         <v>0.0</v>
@@ -36384,8 +36384,8 @@
       <c r="Y302" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z302" t="e">
-        <v>#N/A</v>
+      <c r="Z302" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA302" t="n">
         <v>0.0</v>
@@ -36491,8 +36491,8 @@
       <c r="Y303" t="n">
         <v>28.0</v>
       </c>
-      <c r="Z303" t="e">
-        <v>#N/A</v>
+      <c r="Z303" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA303" t="n">
         <v>3.0</v>
@@ -36598,8 +36598,8 @@
       <c r="Y304" t="n">
         <v>30.0</v>
       </c>
-      <c r="Z304" t="e">
-        <v>#N/A</v>
+      <c r="Z304" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA304" t="n">
         <v>3.0</v>
@@ -36705,8 +36705,8 @@
       <c r="Y305" t="n">
         <v>132.0</v>
       </c>
-      <c r="Z305" t="e">
-        <v>#N/A</v>
+      <c r="Z305" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA305" t="n">
         <v>8.0</v>
@@ -36812,8 +36812,8 @@
       <c r="Y306" t="n">
         <v>84.0</v>
       </c>
-      <c r="Z306" t="e">
-        <v>#N/A</v>
+      <c r="Z306" t="n">
+        <v>24.0</v>
       </c>
       <c r="AA306" t="n">
         <v>12.0</v>
@@ -36919,8 +36919,8 @@
       <c r="Y307" t="n">
         <v>22.0</v>
       </c>
-      <c r="Z307" t="e">
-        <v>#N/A</v>
+      <c r="Z307" t="n">
+        <v>20.0</v>
       </c>
       <c r="AA307" t="n">
         <v>0.0</v>
@@ -37026,8 +37026,8 @@
       <c r="Y308" t="n">
         <v>30.0</v>
       </c>
-      <c r="Z308" t="e">
-        <v>#N/A</v>
+      <c r="Z308" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA308" t="n">
         <v>0.0</v>
@@ -37133,8 +37133,8 @@
       <c r="Y309" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z309" t="e">
-        <v>#N/A</v>
+      <c r="Z309" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA309" t="n">
         <v>0.0</v>
@@ -37240,8 +37240,8 @@
       <c r="Y310" t="n">
         <v>120.0</v>
       </c>
-      <c r="Z310" t="e">
-        <v>#N/A</v>
+      <c r="Z310" t="n">
+        <v>-54.0</v>
       </c>
       <c r="AA310" t="n">
         <v>4.0</v>
@@ -37347,8 +37347,8 @@
       <c r="Y311" t="n">
         <v>108.0</v>
       </c>
-      <c r="Z311" t="e">
-        <v>#N/A</v>
+      <c r="Z311" t="n">
+        <v>28.0</v>
       </c>
       <c r="AA311" t="n">
         <v>10.0</v>
@@ -37454,8 +37454,8 @@
       <c r="Y312" t="n">
         <v>110.0</v>
       </c>
-      <c r="Z312" t="e">
-        <v>#N/A</v>
+      <c r="Z312" t="n">
+        <v>-20.0</v>
       </c>
       <c r="AA312" t="n">
         <v>27.0</v>
@@ -37561,8 +37561,8 @@
       <c r="Y313" t="n">
         <v>106.0</v>
       </c>
-      <c r="Z313" t="e">
-        <v>#N/A</v>
+      <c r="Z313" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA313" t="n">
         <v>15.0</v>
@@ -37668,8 +37668,8 @@
       <c r="Y314" t="n">
         <v>70.0</v>
       </c>
-      <c r="Z314" t="e">
-        <v>#N/A</v>
+      <c r="Z314" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA314" t="n">
         <v>0.0</v>
@@ -37775,8 +37775,8 @@
       <c r="Y315" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z315" t="e">
-        <v>#N/A</v>
+      <c r="Z315" t="n">
+        <v>14.0</v>
       </c>
       <c r="AA315" t="n">
         <v>4.0</v>
@@ -37882,8 +37882,8 @@
       <c r="Y316" t="n">
         <v>52.0</v>
       </c>
-      <c r="Z316" t="e">
-        <v>#N/A</v>
+      <c r="Z316" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA316" t="n">
         <v>0.0</v>
@@ -37989,8 +37989,8 @@
       <c r="Y317" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z317" t="e">
-        <v>#N/A</v>
+      <c r="Z317" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA317" t="n">
         <v>0.0</v>
@@ -38096,8 +38096,8 @@
       <c r="Y318" t="n">
         <v>30.0</v>
       </c>
-      <c r="Z318" t="e">
-        <v>#N/A</v>
+      <c r="Z318" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA318" t="n">
         <v>5.0</v>
@@ -38203,8 +38203,8 @@
       <c r="Y319" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z319" t="e">
-        <v>#N/A</v>
+      <c r="Z319" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA319" t="n">
         <v>9.0</v>
@@ -38310,8 +38310,8 @@
       <c r="Y320" t="n">
         <v>42.0</v>
       </c>
-      <c r="Z320" t="e">
-        <v>#N/A</v>
+      <c r="Z320" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA320" t="n">
         <v>0.0</v>
@@ -38417,8 +38417,8 @@
       <c r="Y321" t="n">
         <v>10.0</v>
       </c>
-      <c r="Z321" t="e">
-        <v>#N/A</v>
+      <c r="Z321" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA321" t="n">
         <v>0.0</v>
@@ -38524,8 +38524,8 @@
       <c r="Y322" t="n">
         <v>30.0</v>
       </c>
-      <c r="Z322" t="e">
-        <v>#N/A</v>
+      <c r="Z322" t="n">
+        <v>10.0</v>
       </c>
       <c r="AA322" t="n">
         <v>8.0</v>
@@ -38631,8 +38631,8 @@
       <c r="Y323" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z323" t="e">
-        <v>#N/A</v>
+      <c r="Z323" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA323" t="n">
         <v>0.0</v>
@@ -38952,8 +38952,8 @@
       <c r="Y326" t="n">
         <v>52.0</v>
       </c>
-      <c r="Z326" t="e">
-        <v>#N/A</v>
+      <c r="Z326" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA326" t="n">
         <v>5.0</v>
@@ -39059,8 +39059,8 @@
       <c r="Y327" t="n">
         <v>36.0</v>
       </c>
-      <c r="Z327" t="e">
-        <v>#N/A</v>
+      <c r="Z327" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA327" t="n">
         <v>3.0</v>
@@ -39166,8 +39166,8 @@
       <c r="Y328" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z328" t="e">
-        <v>#N/A</v>
+      <c r="Z328" t="n">
+        <v>24.0</v>
       </c>
       <c r="AA328" t="n">
         <v>5.0</v>
@@ -39273,8 +39273,8 @@
       <c r="Y329" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z329" t="e">
-        <v>#N/A</v>
+      <c r="Z329" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA329" t="n">
         <v>0.0</v>
@@ -39380,8 +39380,8 @@
       <c r="Y330" t="n">
         <v>80.0</v>
       </c>
-      <c r="Z330" t="e">
-        <v>#N/A</v>
+      <c r="Z330" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA330" t="n">
         <v>5.0</v>
@@ -39487,8 +39487,8 @@
       <c r="Y331" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z331" t="e">
-        <v>#N/A</v>
+      <c r="Z331" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA331" t="n">
         <v>0.0</v>
@@ -39594,8 +39594,8 @@
       <c r="Y332" t="n">
         <v>26.0</v>
       </c>
-      <c r="Z332" t="e">
-        <v>#N/A</v>
+      <c r="Z332" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA332" t="n">
         <v>0.0</v>
@@ -39808,8 +39808,8 @@
       <c r="Y334" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z334" t="e">
-        <v>#N/A</v>
+      <c r="Z334" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA334" t="n">
         <v>0.0</v>
@@ -39915,8 +39915,8 @@
       <c r="Y335" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z335" t="e">
-        <v>#N/A</v>
+      <c r="Z335" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA335" t="n">
         <v>0.0</v>
@@ -40022,8 +40022,8 @@
       <c r="Y336" t="n">
         <v>102.0</v>
       </c>
-      <c r="Z336" t="e">
-        <v>#N/A</v>
+      <c r="Z336" t="n">
+        <v>22.0</v>
       </c>
       <c r="AA336" t="n">
         <v>24.0</v>
@@ -40129,8 +40129,8 @@
       <c r="Y337" t="n">
         <v>118.0</v>
       </c>
-      <c r="Z337" t="e">
-        <v>#N/A</v>
+      <c r="Z337" t="n">
+        <v>10.0</v>
       </c>
       <c r="AA337" t="n">
         <v>5.0</v>
@@ -40236,8 +40236,8 @@
       <c r="Y338" t="n">
         <v>42.0</v>
       </c>
-      <c r="Z338" t="e">
-        <v>#N/A</v>
+      <c r="Z338" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA338" t="n">
         <v>4.0</v>
@@ -40343,8 +40343,8 @@
       <c r="Y339" t="n">
         <v>34.0</v>
       </c>
-      <c r="Z339" t="e">
-        <v>#N/A</v>
+      <c r="Z339" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA339" t="n">
         <v>0.0</v>
@@ -40450,8 +40450,8 @@
       <c r="Y340" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z340" t="e">
-        <v>#N/A</v>
+      <c r="Z340" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA340" t="n">
         <v>0.0</v>
@@ -40557,8 +40557,8 @@
       <c r="Y341" t="n">
         <v>34.0</v>
       </c>
-      <c r="Z341" t="e">
-        <v>#N/A</v>
+      <c r="Z341" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA341" t="n">
         <v>3.0</v>
@@ -40664,8 +40664,8 @@
       <c r="Y342" t="n">
         <v>50.0</v>
       </c>
-      <c r="Z342" t="e">
-        <v>#N/A</v>
+      <c r="Z342" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA342" t="n">
         <v>5.0</v>
@@ -40771,8 +40771,8 @@
       <c r="Y343" t="n">
         <v>92.0</v>
       </c>
-      <c r="Z343" t="e">
-        <v>#N/A</v>
+      <c r="Z343" t="n">
+        <v>62.0</v>
       </c>
       <c r="AA343" t="n">
         <v>48.0</v>
@@ -40878,8 +40878,8 @@
       <c r="Y344" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z344" t="e">
-        <v>#N/A</v>
+      <c r="Z344" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA344" t="n">
         <v>0.0</v>
@@ -41092,8 +41092,8 @@
       <c r="Y346" t="n">
         <v>92.0</v>
       </c>
-      <c r="Z346" t="e">
-        <v>#N/A</v>
+      <c r="Z346" t="n">
+        <v>12.0</v>
       </c>
       <c r="AA346" t="n">
         <v>0.0</v>
@@ -41199,8 +41199,8 @@
       <c r="Y347" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z347" t="e">
-        <v>#N/A</v>
+      <c r="Z347" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA347" t="n">
         <v>0.0</v>
@@ -41306,8 +41306,8 @@
       <c r="Y348" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z348" t="e">
-        <v>#N/A</v>
+      <c r="Z348" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA348" t="n">
         <v>0.0</v>
@@ -41413,8 +41413,8 @@
       <c r="Y349" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z349" t="e">
-        <v>#N/A</v>
+      <c r="Z349" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA349" t="n">
         <v>0.0</v>
@@ -41520,8 +41520,8 @@
       <c r="Y350" t="n">
         <v>114.0</v>
       </c>
-      <c r="Z350" t="e">
-        <v>#N/A</v>
+      <c r="Z350" t="n">
+        <v>72.0</v>
       </c>
       <c r="AA350" t="n">
         <v>40.0</v>
@@ -41627,8 +41627,8 @@
       <c r="Y351" t="n">
         <v>32.0</v>
       </c>
-      <c r="Z351" t="e">
-        <v>#N/A</v>
+      <c r="Z351" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA351" t="n">
         <v>0.0</v>
@@ -41734,8 +41734,8 @@
       <c r="Y352" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z352" t="e">
-        <v>#N/A</v>
+      <c r="Z352" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA352" t="n">
         <v>0.0</v>
@@ -41841,8 +41841,8 @@
       <c r="Y353" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z353" t="e">
-        <v>#N/A</v>
+      <c r="Z353" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA353" t="n">
         <v>0.0</v>
@@ -41948,8 +41948,8 @@
       <c r="Y354" t="n">
         <v>96.0</v>
       </c>
-      <c r="Z354" t="e">
-        <v>#N/A</v>
+      <c r="Z354" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA354" t="n">
         <v>0.0</v>
@@ -42055,8 +42055,8 @@
       <c r="Y355" t="n">
         <v>64.0</v>
       </c>
-      <c r="Z355" t="e">
-        <v>#N/A</v>
+      <c r="Z355" t="n">
+        <v>-30.0</v>
       </c>
       <c r="AA355" t="n">
         <v>0.0</v>
@@ -42162,8 +42162,8 @@
       <c r="Y356" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z356" t="e">
-        <v>#N/A</v>
+      <c r="Z356" t="n">
+        <v>52.0</v>
       </c>
       <c r="AA356" t="n">
         <v>0.0</v>
@@ -42269,8 +42269,8 @@
       <c r="Y357" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z357" t="e">
-        <v>#N/A</v>
+      <c r="Z357" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA357" t="n">
         <v>0.0</v>
@@ -42376,8 +42376,8 @@
       <c r="Y358" t="n">
         <v>56.0</v>
       </c>
-      <c r="Z358" t="e">
-        <v>#N/A</v>
+      <c r="Z358" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA358" t="n">
         <v>8.0</v>
@@ -42483,8 +42483,8 @@
       <c r="Y359" t="n">
         <v>76.0</v>
       </c>
-      <c r="Z359" t="e">
-        <v>#N/A</v>
+      <c r="Z359" t="n">
+        <v>52.0</v>
       </c>
       <c r="AA359" t="n">
         <v>0.0</v>
@@ -42590,8 +42590,8 @@
       <c r="Y360" t="n">
         <v>16.0</v>
       </c>
-      <c r="Z360" t="e">
-        <v>#N/A</v>
+      <c r="Z360" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA360" t="n">
         <v>0.0</v>
@@ -42697,8 +42697,8 @@
       <c r="Y361" t="n">
         <v>72.0</v>
       </c>
-      <c r="Z361" t="e">
-        <v>#N/A</v>
+      <c r="Z361" t="n">
+        <v>-34.0</v>
       </c>
       <c r="AA361" t="n">
         <v>9.0</v>
@@ -42804,8 +42804,8 @@
       <c r="Y362" t="n">
         <v>32.0</v>
       </c>
-      <c r="Z362" t="e">
-        <v>#N/A</v>
+      <c r="Z362" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA362" t="n">
         <v>0.0</v>
@@ -42911,8 +42911,8 @@
       <c r="Y363" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z363" t="e">
-        <v>#N/A</v>
+      <c r="Z363" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA363" t="n">
         <v>0.0</v>
@@ -43018,8 +43018,8 @@
       <c r="Y364" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z364" t="e">
-        <v>#N/A</v>
+      <c r="Z364" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA364" t="n">
         <v>0.0</v>
@@ -43125,8 +43125,8 @@
       <c r="Y365" t="n">
         <v>76.0</v>
       </c>
-      <c r="Z365" t="e">
-        <v>#N/A</v>
+      <c r="Z365" t="n">
+        <v>-38.0</v>
       </c>
       <c r="AA365" t="n">
         <v>0.0</v>
@@ -43232,8 +43232,8 @@
       <c r="Y366" t="n">
         <v>82.0</v>
       </c>
-      <c r="Z366" t="e">
-        <v>#N/A</v>
+      <c r="Z366" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA366" t="n">
         <v>9.0</v>
@@ -43446,8 +43446,8 @@
       <c r="Y368" t="n">
         <v>54.0</v>
       </c>
-      <c r="Z368" t="e">
-        <v>#N/A</v>
+      <c r="Z368" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA368" t="n">
         <v>4.0</v>
@@ -43553,8 +43553,8 @@
       <c r="Y369" t="n">
         <v>10.0</v>
       </c>
-      <c r="Z369" t="e">
-        <v>#N/A</v>
+      <c r="Z369" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA369" t="n">
         <v>0.0</v>
@@ -43660,8 +43660,8 @@
       <c r="Y370" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z370" t="e">
-        <v>#N/A</v>
+      <c r="Z370" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA370" t="n">
         <v>0.0</v>
@@ -43767,8 +43767,8 @@
       <c r="Y371" t="n">
         <v>110.0</v>
       </c>
-      <c r="Z371" t="e">
-        <v>#N/A</v>
+      <c r="Z371" t="n">
+        <v>-40.0</v>
       </c>
       <c r="AA371" t="n">
         <v>0.0</v>
@@ -43874,8 +43874,8 @@
       <c r="Y372" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z372" t="e">
-        <v>#N/A</v>
+      <c r="Z372" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA372" t="n">
         <v>0.0</v>
@@ -43981,8 +43981,8 @@
       <c r="Y373" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z373" t="e">
-        <v>#N/A</v>
+      <c r="Z373" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA373" t="n">
         <v>0.0</v>
@@ -44088,8 +44088,8 @@
       <c r="Y374" t="n">
         <v>124.0</v>
       </c>
-      <c r="Z374" t="e">
-        <v>#N/A</v>
+      <c r="Z374" t="n">
+        <v>104.0</v>
       </c>
       <c r="AA374" t="n">
         <v>48.0</v>
@@ -44195,8 +44195,8 @@
       <c r="Y375" t="n">
         <v>46.0</v>
       </c>
-      <c r="Z375" t="e">
-        <v>#N/A</v>
+      <c r="Z375" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA375" t="n">
         <v>0.0</v>
@@ -44302,8 +44302,8 @@
       <c r="Y376" t="n">
         <v>14.0</v>
       </c>
-      <c r="Z376" t="e">
-        <v>#N/A</v>
+      <c r="Z376" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA376" t="n">
         <v>0.0</v>
@@ -44409,8 +44409,8 @@
       <c r="Y377" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z377" t="e">
-        <v>#N/A</v>
+      <c r="Z377" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA377" t="n">
         <v>0.0</v>
@@ -44623,8 +44623,8 @@
       <c r="Y379" t="n">
         <v>122.0</v>
       </c>
-      <c r="Z379" t="e">
-        <v>#N/A</v>
+      <c r="Z379" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA379" t="n">
         <v>27.0</v>
@@ -44730,8 +44730,8 @@
       <c r="Y380" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z380" t="e">
-        <v>#N/A</v>
+      <c r="Z380" t="n">
+        <v>32.0</v>
       </c>
       <c r="AA380" t="n">
         <v>25.0</v>
@@ -44837,8 +44837,8 @@
       <c r="Y381" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z381" t="e">
-        <v>#N/A</v>
+      <c r="Z381" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA381" t="n">
         <v>12.0</v>
@@ -44944,8 +44944,8 @@
       <c r="Y382" t="n">
         <v>86.0</v>
       </c>
-      <c r="Z382" t="e">
-        <v>#N/A</v>
+      <c r="Z382" t="n">
+        <v>-36.0</v>
       </c>
       <c r="AA382" t="n">
         <v>0.0</v>
@@ -45051,8 +45051,8 @@
       <c r="Y383" t="n">
         <v>114.0</v>
       </c>
-      <c r="Z383" t="e">
-        <v>#N/A</v>
+      <c r="Z383" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA383" t="n">
         <v>4.0</v>
@@ -45158,8 +45158,8 @@
       <c r="Y384" t="n">
         <v>6.0</v>
       </c>
-      <c r="Z384" t="e">
-        <v>#N/A</v>
+      <c r="Z384" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA384" t="n">
         <v>0.0</v>
@@ -45265,8 +45265,8 @@
       <c r="Y385" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z385" t="e">
-        <v>#N/A</v>
+      <c r="Z385" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA385" t="n">
         <v>0.0</v>
@@ -45372,8 +45372,8 @@
       <c r="Y386" t="n">
         <v>118.0</v>
       </c>
-      <c r="Z386" t="e">
-        <v>#N/A</v>
+      <c r="Z386" t="n">
+        <v>-52.0</v>
       </c>
       <c r="AA386" t="n">
         <v>9.0</v>
@@ -45586,8 +45586,8 @@
       <c r="Y388" t="n">
         <v>28.0</v>
       </c>
-      <c r="Z388" t="e">
-        <v>#N/A</v>
+      <c r="Z388" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA388" t="n">
         <v>0.0</v>
@@ -45693,8 +45693,8 @@
       <c r="Y389" t="n">
         <v>106.0</v>
       </c>
-      <c r="Z389" t="e">
-        <v>#N/A</v>
+      <c r="Z389" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA389" t="n">
         <v>18.0</v>
@@ -45800,8 +45800,8 @@
       <c r="Y390" t="n">
         <v>70.0</v>
       </c>
-      <c r="Z390" t="e">
-        <v>#N/A</v>
+      <c r="Z390" t="n">
+        <v>36.0</v>
       </c>
       <c r="AA390" t="n">
         <v>4.0</v>
@@ -45907,8 +45907,8 @@
       <c r="Y391" t="n">
         <v>32.0</v>
       </c>
-      <c r="Z391" t="e">
-        <v>#N/A</v>
+      <c r="Z391" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA391" t="n">
         <v>0.0</v>
@@ -46014,8 +46014,8 @@
       <c r="Y392" t="n">
         <v>8.0</v>
       </c>
-      <c r="Z392" t="e">
-        <v>#N/A</v>
+      <c r="Z392" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA392" t="n">
         <v>0.0</v>
@@ -46121,8 +46121,8 @@
       <c r="Y393" t="n">
         <v>122.0</v>
       </c>
-      <c r="Z393" t="e">
-        <v>#N/A</v>
+      <c r="Z393" t="n">
+        <v>-54.0</v>
       </c>
       <c r="AA393" t="n">
         <v>5.0</v>
@@ -46228,8 +46228,8 @@
       <c r="Y394" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z394" t="e">
-        <v>#N/A</v>
+      <c r="Z394" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA394" t="n">
         <v>0.0</v>
@@ -46335,8 +46335,8 @@
       <c r="Y395" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z395" t="e">
-        <v>#N/A</v>
+      <c r="Z395" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA395" t="n">
         <v>0.0</v>
@@ -46442,8 +46442,8 @@
       <c r="Y396" t="n">
         <v>78.0</v>
       </c>
-      <c r="Z396" t="e">
-        <v>#N/A</v>
+      <c r="Z396" t="n">
+        <v>14.0</v>
       </c>
       <c r="AA396" t="n">
         <v>4.0</v>
@@ -46549,8 +46549,8 @@
       <c r="Y397" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z397" t="e">
-        <v>#N/A</v>
+      <c r="Z397" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA397" t="n">
         <v>0.0</v>
@@ -46656,8 +46656,8 @@
       <c r="Y398" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z398" t="e">
-        <v>#N/A</v>
+      <c r="Z398" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA398" t="n">
         <v>0.0</v>
@@ -46763,8 +46763,8 @@
       <c r="Y399" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z399" t="e">
-        <v>#N/A</v>
+      <c r="Z399" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA399" t="n">
         <v>0.0</v>
@@ -46870,8 +46870,8 @@
       <c r="Y400" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z400" t="e">
-        <v>#N/A</v>
+      <c r="Z400" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA400" t="n">
         <v>0.0</v>
@@ -46977,8 +46977,8 @@
       <c r="Y401" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z401" t="e">
-        <v>#N/A</v>
+      <c r="Z401" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA401" t="n">
         <v>0.0</v>
@@ -47084,8 +47084,8 @@
       <c r="Y402" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z402" t="e">
-        <v>#N/A</v>
+      <c r="Z402" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA402" t="n">
         <v>0.0</v>
@@ -47191,8 +47191,8 @@
       <c r="Y403" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z403" t="e">
-        <v>#N/A</v>
+      <c r="Z403" t="n">
+        <v>10.0</v>
       </c>
       <c r="AA403" t="n">
         <v>0.0</v>
@@ -47298,8 +47298,8 @@
       <c r="Y404" t="n">
         <v>50.0</v>
       </c>
-      <c r="Z404" t="e">
-        <v>#N/A</v>
+      <c r="Z404" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA404" t="n">
         <v>3.0</v>
@@ -47405,8 +47405,8 @@
       <c r="Y405" t="n">
         <v>78.0</v>
       </c>
-      <c r="Z405" t="e">
-        <v>#N/A</v>
+      <c r="Z405" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA405" t="n">
         <v>0.0</v>
@@ -47619,8 +47619,8 @@
       <c r="Y407" t="n">
         <v>108.0</v>
       </c>
-      <c r="Z407" t="e">
-        <v>#N/A</v>
+      <c r="Z407" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA407" t="n">
         <v>30.0</v>
@@ -47726,8 +47726,8 @@
       <c r="Y408" t="n">
         <v>102.0</v>
       </c>
-      <c r="Z408" t="e">
-        <v>#N/A</v>
+      <c r="Z408" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA408" t="n">
         <v>8.0</v>
@@ -47833,8 +47833,8 @@
       <c r="Y409" t="n">
         <v>48.0</v>
       </c>
-      <c r="Z409" t="e">
-        <v>#N/A</v>
+      <c r="Z409" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA409" t="n">
         <v>6.0</v>
@@ -47940,8 +47940,8 @@
       <c r="Y410" t="n">
         <v>84.0</v>
       </c>
-      <c r="Z410" t="e">
-        <v>#N/A</v>
+      <c r="Z410" t="n">
+        <v>-44.0</v>
       </c>
       <c r="AA410" t="n">
         <v>0.0</v>
@@ -48047,8 +48047,8 @@
       <c r="Y411" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z411" t="e">
-        <v>#N/A</v>
+      <c r="Z411" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA411" t="n">
         <v>0.0</v>
@@ -48154,8 +48154,8 @@
       <c r="Y412" t="n">
         <v>14.0</v>
       </c>
-      <c r="Z412" t="e">
-        <v>#N/A</v>
+      <c r="Z412" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA412" t="n">
         <v>0.0</v>
@@ -48368,8 +48368,8 @@
       <c r="Y414" t="n">
         <v>30.0</v>
       </c>
-      <c r="Z414" t="e">
-        <v>#N/A</v>
+      <c r="Z414" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA414" t="n">
         <v>0.0</v>
@@ -48475,8 +48475,8 @@
       <c r="Y415" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z415" t="e">
-        <v>#N/A</v>
+      <c r="Z415" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA415" t="n">
         <v>10.0</v>
@@ -48582,8 +48582,8 @@
       <c r="Y416" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z416" t="e">
-        <v>#N/A</v>
+      <c r="Z416" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA416" t="n">
         <v>8.0</v>
@@ -48689,8 +48689,8 @@
       <c r="Y417" t="n">
         <v>58.0</v>
       </c>
-      <c r="Z417" t="e">
-        <v>#N/A</v>
+      <c r="Z417" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA417" t="n">
         <v>8.0</v>
@@ -48796,8 +48796,8 @@
       <c r="Y418" t="n">
         <v>126.0</v>
       </c>
-      <c r="Z418" t="e">
-        <v>#N/A</v>
+      <c r="Z418" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA418" t="n">
         <v>4.0</v>
@@ -48903,8 +48903,8 @@
       <c r="Y419" t="n">
         <v>120.0</v>
       </c>
-      <c r="Z419" t="e">
-        <v>#N/A</v>
+      <c r="Z419" t="n">
+        <v>46.0</v>
       </c>
       <c r="AA419" t="n">
         <v>15.0</v>
@@ -49010,8 +49010,8 @@
       <c r="Y420" t="n">
         <v>34.0</v>
       </c>
-      <c r="Z420" t="e">
-        <v>#N/A</v>
+      <c r="Z420" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA420" t="n">
         <v>0.0</v>
@@ -49117,8 +49117,8 @@
       <c r="Y421" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z421" t="e">
-        <v>#N/A</v>
+      <c r="Z421" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA421" t="n">
         <v>0.0</v>
@@ -49224,8 +49224,8 @@
       <c r="Y422" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z422" t="e">
-        <v>#N/A</v>
+      <c r="Z422" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA422" t="n">
         <v>0.0</v>
@@ -49331,8 +49331,8 @@
       <c r="Y423" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z423" t="e">
-        <v>#N/A</v>
+      <c r="Z423" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA423" t="n">
         <v>0.0</v>
@@ -49438,8 +49438,8 @@
       <c r="Y424" t="n">
         <v>86.0</v>
       </c>
-      <c r="Z424" t="e">
-        <v>#N/A</v>
+      <c r="Z424" t="n">
+        <v>30.0</v>
       </c>
       <c r="AA424" t="n">
         <v>5.0</v>
@@ -49545,8 +49545,8 @@
       <c r="Y425" t="n">
         <v>96.0</v>
       </c>
-      <c r="Z425" t="e">
-        <v>#N/A</v>
+      <c r="Z425" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA425" t="n">
         <v>8.0</v>
@@ -49652,8 +49652,8 @@
       <c r="Y426" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z426" t="e">
-        <v>#N/A</v>
+      <c r="Z426" t="n">
+        <v>-38.0</v>
       </c>
       <c r="AA426" t="n">
         <v>0.0</v>
@@ -49759,8 +49759,8 @@
       <c r="Y427" t="n">
         <v>98.0</v>
       </c>
-      <c r="Z427" t="e">
-        <v>#N/A</v>
+      <c r="Z427" t="n">
+        <v>-32.0</v>
       </c>
       <c r="AA427" t="n">
         <v>4.0</v>
@@ -49866,8 +49866,8 @@
       <c r="Y428" t="n">
         <v>38.0</v>
       </c>
-      <c r="Z428" t="e">
-        <v>#N/A</v>
+      <c r="Z428" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA428" t="n">
         <v>8.0</v>
@@ -49973,8 +49973,8 @@
       <c r="Y429" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z429" t="e">
-        <v>#N/A</v>
+      <c r="Z429" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA429" t="n">
         <v>0.0</v>
@@ -50080,8 +50080,8 @@
       <c r="Y430" t="n">
         <v>58.0</v>
       </c>
-      <c r="Z430" t="e">
-        <v>#N/A</v>
+      <c r="Z430" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA430" t="n">
         <v>4.0</v>
@@ -50187,8 +50187,8 @@
       <c r="Y431" t="n">
         <v>8.0</v>
       </c>
-      <c r="Z431" t="e">
-        <v>#N/A</v>
+      <c r="Z431" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA431" t="n">
         <v>0.0</v>
@@ -50294,8 +50294,8 @@
       <c r="Y432" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z432" t="e">
-        <v>#N/A</v>
+      <c r="Z432" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA432" t="n">
         <v>0.0</v>
@@ -50401,8 +50401,8 @@
       <c r="Y433" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z433" t="e">
-        <v>#N/A</v>
+      <c r="Z433" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA433" t="n">
         <v>0.0</v>
@@ -50508,8 +50508,8 @@
       <c r="Y434" t="n">
         <v>94.0</v>
       </c>
-      <c r="Z434" t="e">
-        <v>#N/A</v>
+      <c r="Z434" t="n">
+        <v>-34.0</v>
       </c>
       <c r="AA434" t="n">
         <v>10.0</v>
@@ -50615,8 +50615,8 @@
       <c r="Y435" t="n">
         <v>76.0</v>
       </c>
-      <c r="Z435" t="e">
-        <v>#N/A</v>
+      <c r="Z435" t="n">
+        <v>16.0</v>
       </c>
       <c r="AA435" t="n">
         <v>5.0</v>
@@ -50722,8 +50722,8 @@
       <c r="Y436" t="n">
         <v>90.0</v>
       </c>
-      <c r="Z436" t="e">
-        <v>#N/A</v>
+      <c r="Z436" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA436" t="n">
         <v>15.0</v>
@@ -50829,8 +50829,8 @@
       <c r="Y437" t="n">
         <v>64.0</v>
       </c>
-      <c r="Z437" t="e">
-        <v>#N/A</v>
+      <c r="Z437" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA437" t="n">
         <v>5.0</v>
@@ -50936,8 +50936,8 @@
       <c r="Y438" t="n">
         <v>16.0</v>
       </c>
-      <c r="Z438" t="e">
-        <v>#N/A</v>
+      <c r="Z438" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA438" t="n">
         <v>0.0</v>
@@ -51150,8 +51150,8 @@
       <c r="Y440" t="n">
         <v>60.0</v>
       </c>
-      <c r="Z440" t="e">
-        <v>#N/A</v>
+      <c r="Z440" t="n">
+        <v>-20.0</v>
       </c>
       <c r="AA440" t="n">
         <v>0.0</v>
@@ -51364,8 +51364,8 @@
       <c r="Y442" t="n">
         <v>66.0</v>
       </c>
-      <c r="Z442" t="e">
-        <v>#N/A</v>
+      <c r="Z442" t="n">
+        <v>-36.0</v>
       </c>
       <c r="AA442" t="n">
         <v>4.0</v>
@@ -51471,8 +51471,8 @@
       <c r="Y443" t="n">
         <v>56.0</v>
       </c>
-      <c r="Z443" t="e">
-        <v>#N/A</v>
+      <c r="Z443" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA443" t="n">
         <v>9.0</v>
@@ -51578,8 +51578,8 @@
       <c r="Y444" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z444" t="e">
-        <v>#N/A</v>
+      <c r="Z444" t="n">
+        <v>-20.0</v>
       </c>
       <c r="AA444" t="n">
         <v>4.0</v>
@@ -51685,8 +51685,8 @@
       <c r="Y445" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z445" t="e">
-        <v>#N/A</v>
+      <c r="Z445" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA445" t="n">
         <v>0.0</v>
@@ -51792,8 +51792,8 @@
       <c r="Y446" t="n">
         <v>112.0</v>
       </c>
-      <c r="Z446" t="e">
-        <v>#N/A</v>
+      <c r="Z446" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA446" t="n">
         <v>10.0</v>
@@ -51899,8 +51899,8 @@
       <c r="Y447" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z447" t="e">
-        <v>#N/A</v>
+      <c r="Z447" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA447" t="n">
         <v>0.0</v>
@@ -52006,8 +52006,8 @@
       <c r="Y448" t="n">
         <v>28.0</v>
       </c>
-      <c r="Z448" t="e">
-        <v>#N/A</v>
+      <c r="Z448" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA448" t="n">
         <v>0.0</v>
@@ -52113,8 +52113,8 @@
       <c r="Y449" t="n">
         <v>86.0</v>
       </c>
-      <c r="Z449" t="e">
-        <v>#N/A</v>
+      <c r="Z449" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA449" t="n">
         <v>4.0</v>
@@ -52220,8 +52220,8 @@
       <c r="Y450" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z450" t="e">
-        <v>#N/A</v>
+      <c r="Z450" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA450" t="n">
         <v>0.0</v>
@@ -52434,8 +52434,8 @@
       <c r="Y452" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z452" t="e">
-        <v>#N/A</v>
+      <c r="Z452" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA452" t="n">
         <v>0.0</v>
@@ -52541,8 +52541,8 @@
       <c r="Y453" t="n">
         <v>124.0</v>
       </c>
-      <c r="Z453" t="e">
-        <v>#N/A</v>
+      <c r="Z453" t="n">
+        <v>-60.0</v>
       </c>
       <c r="AA453" t="n">
         <v>0.0</v>
@@ -52648,8 +52648,8 @@
       <c r="Y454" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z454" t="e">
-        <v>#N/A</v>
+      <c r="Z454" t="n">
+        <v>42.0</v>
       </c>
       <c r="AA454" t="n">
         <v>60.0</v>
@@ -52755,8 +52755,8 @@
       <c r="Y455" t="n">
         <v>26.0</v>
       </c>
-      <c r="Z455" t="e">
-        <v>#N/A</v>
+      <c r="Z455" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA455" t="n">
         <v>0.0</v>
@@ -52862,8 +52862,8 @@
       <c r="Y456" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z456" t="e">
-        <v>#N/A</v>
+      <c r="Z456" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA456" t="n">
         <v>0.0</v>
@@ -53076,8 +53076,8 @@
       <c r="Y458" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z458" t="e">
-        <v>#N/A</v>
+      <c r="Z458" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA458" t="n">
         <v>0.0</v>
@@ -53183,8 +53183,8 @@
       <c r="Y459" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z459" t="e">
-        <v>#N/A</v>
+      <c r="Z459" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA459" t="n">
         <v>0.0</v>
@@ -53290,8 +53290,8 @@
       <c r="Y460" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z460" t="e">
-        <v>#N/A</v>
+      <c r="Z460" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA460" t="n">
         <v>0.0</v>
@@ -53397,8 +53397,8 @@
       <c r="Y461" t="n">
         <v>86.0</v>
       </c>
-      <c r="Z461" t="e">
-        <v>#N/A</v>
+      <c r="Z461" t="n">
+        <v>-28.0</v>
       </c>
       <c r="AA461" t="n">
         <v>4.0</v>
@@ -53504,8 +53504,8 @@
       <c r="Y462" t="n">
         <v>130.0</v>
       </c>
-      <c r="Z462" t="e">
-        <v>#N/A</v>
+      <c r="Z462" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA462" t="n">
         <v>16.0</v>
@@ -53611,8 +53611,8 @@
       <c r="Y463" t="n">
         <v>76.0</v>
       </c>
-      <c r="Z463" t="e">
-        <v>#N/A</v>
+      <c r="Z463" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA463" t="n">
         <v>12.0</v>
@@ -53718,8 +53718,8 @@
       <c r="Y464" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z464" t="e">
-        <v>#N/A</v>
+      <c r="Z464" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA464" t="n">
         <v>0.0</v>
@@ -53825,8 +53825,8 @@
       <c r="Y465" t="n">
         <v>126.0</v>
       </c>
-      <c r="Z465" t="e">
-        <v>#N/A</v>
+      <c r="Z465" t="n">
+        <v>-30.0</v>
       </c>
       <c r="AA465" t="n">
         <v>33.0</v>
@@ -53932,8 +53932,8 @@
       <c r="Y466" t="n">
         <v>64.0</v>
       </c>
-      <c r="Z466" t="e">
-        <v>#N/A</v>
+      <c r="Z466" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA466" t="n">
         <v>6.0</v>
@@ -54039,8 +54039,8 @@
       <c r="Y467" t="n">
         <v>60.0</v>
       </c>
-      <c r="Z467" t="e">
-        <v>#N/A</v>
+      <c r="Z467" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA467" t="n">
         <v>0.0</v>
@@ -54146,8 +54146,8 @@
       <c r="Y468" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z468" t="e">
-        <v>#N/A</v>
+      <c r="Z468" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA468" t="n">
         <v>0.0</v>
@@ -54253,8 +54253,8 @@
       <c r="Y469" t="n">
         <v>58.0</v>
       </c>
-      <c r="Z469" t="e">
-        <v>#N/A</v>
+      <c r="Z469" t="n">
+        <v>16.0</v>
       </c>
       <c r="AA469" t="n">
         <v>10.0</v>
@@ -54360,8 +54360,8 @@
       <c r="Y470" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z470" t="e">
-        <v>#N/A</v>
+      <c r="Z470" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA470" t="n">
         <v>0.0</v>
@@ -54467,8 +54467,8 @@
       <c r="Y471" t="n">
         <v>16.0</v>
       </c>
-      <c r="Z471" t="e">
-        <v>#N/A</v>
+      <c r="Z471" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA471" t="n">
         <v>0.0</v>
@@ -54574,8 +54574,8 @@
       <c r="Y472" t="n">
         <v>22.0</v>
       </c>
-      <c r="Z472" t="e">
-        <v>#N/A</v>
+      <c r="Z472" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA472" t="n">
         <v>0.0</v>
@@ -54788,8 +54788,8 @@
       <c r="Y474" t="n">
         <v>80.0</v>
       </c>
-      <c r="Z474" t="e">
-        <v>#N/A</v>
+      <c r="Z474" t="n">
+        <v>-48.0</v>
       </c>
       <c r="AA474" t="n">
         <v>6.0</v>
@@ -54895,8 +54895,8 @@
       <c r="Y475" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z475" t="e">
-        <v>#N/A</v>
+      <c r="Z475" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA475" t="n">
         <v>0.0</v>
@@ -55109,8 +55109,8 @@
       <c r="Y477" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z477" t="e">
-        <v>#N/A</v>
+      <c r="Z477" t="n">
+        <v>-52.0</v>
       </c>
       <c r="AA477" t="n">
         <v>0.0</v>
@@ -55216,8 +55216,8 @@
       <c r="Y478" t="n">
         <v>112.0</v>
       </c>
-      <c r="Z478" t="e">
-        <v>#N/A</v>
+      <c r="Z478" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA478" t="n">
         <v>4.0</v>
@@ -55323,8 +55323,8 @@
       <c r="Y479" t="n">
         <v>52.0</v>
       </c>
-      <c r="Z479" t="e">
-        <v>#N/A</v>
+      <c r="Z479" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA479" t="n">
         <v>4.0</v>
@@ -55430,8 +55430,8 @@
       <c r="Y480" t="n">
         <v>32.0</v>
       </c>
-      <c r="Z480" t="e">
-        <v>#N/A</v>
+      <c r="Z480" t="n">
+        <v>-20.0</v>
       </c>
       <c r="AA480" t="n">
         <v>3.0</v>
@@ -55537,8 +55537,8 @@
       <c r="Y481" t="n">
         <v>78.0</v>
       </c>
-      <c r="Z481" t="e">
-        <v>#N/A</v>
+      <c r="Z481" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA481" t="n">
         <v>20.0</v>
@@ -55858,8 +55858,8 @@
       <c r="Y484" t="n">
         <v>108.0</v>
       </c>
-      <c r="Z484" t="e">
-        <v>#N/A</v>
+      <c r="Z484" t="n">
+        <v>26.0</v>
       </c>
       <c r="AA484" t="n">
         <v>40.0</v>
@@ -55965,8 +55965,8 @@
       <c r="Y485" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z485" t="e">
-        <v>#N/A</v>
+      <c r="Z485" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA485" t="n">
         <v>0.0</v>
@@ -56072,8 +56072,8 @@
       <c r="Y486" t="n">
         <v>46.0</v>
       </c>
-      <c r="Z486" t="e">
-        <v>#N/A</v>
+      <c r="Z486" t="n">
+        <v>10.0</v>
       </c>
       <c r="AA486" t="n">
         <v>0.0</v>
@@ -56179,8 +56179,8 @@
       <c r="Y487" t="n">
         <v>102.0</v>
       </c>
-      <c r="Z487" t="e">
-        <v>#N/A</v>
+      <c r="Z487" t="n">
+        <v>14.0</v>
       </c>
       <c r="AA487" t="n">
         <v>0.0</v>
@@ -56286,8 +56286,8 @@
       <c r="Y488" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z488" t="e">
-        <v>#N/A</v>
+      <c r="Z488" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA488" t="n">
         <v>0.0</v>
@@ -56393,8 +56393,8 @@
       <c r="Y489" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z489" t="e">
-        <v>#N/A</v>
+      <c r="Z489" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA489" t="n">
         <v>0.0</v>
@@ -56500,8 +56500,8 @@
       <c r="Y490" t="n">
         <v>46.0</v>
       </c>
-      <c r="Z490" t="e">
-        <v>#N/A</v>
+      <c r="Z490" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA490" t="n">
         <v>5.0</v>
@@ -56607,8 +56607,8 @@
       <c r="Y491" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z491" t="e">
-        <v>#N/A</v>
+      <c r="Z491" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA491" t="n">
         <v>0.0</v>
@@ -56714,8 +56714,8 @@
       <c r="Y492" t="n">
         <v>126.0</v>
       </c>
-      <c r="Z492" t="e">
-        <v>#N/A</v>
+      <c r="Z492" t="n">
+        <v>32.0</v>
       </c>
       <c r="AA492" t="n">
         <v>4.0</v>
@@ -56821,8 +56821,8 @@
       <c r="Y493" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z493" t="e">
-        <v>#N/A</v>
+      <c r="Z493" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA493" t="n">
         <v>0.0</v>
@@ -56928,8 +56928,8 @@
       <c r="Y494" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z494" t="e">
-        <v>#N/A</v>
+      <c r="Z494" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA494" t="n">
         <v>0.0</v>
@@ -57035,8 +57035,8 @@
       <c r="Y495" t="n">
         <v>94.0</v>
       </c>
-      <c r="Z495" t="e">
-        <v>#N/A</v>
+      <c r="Z495" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA495" t="n">
         <v>4.0</v>
@@ -57142,8 +57142,8 @@
       <c r="Y496" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z496" t="e">
-        <v>#N/A</v>
+      <c r="Z496" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA496" t="n">
         <v>12.0</v>
@@ -57249,8 +57249,8 @@
       <c r="Y497" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z497" t="e">
-        <v>#N/A</v>
+      <c r="Z497" t="n">
+        <v>16.0</v>
       </c>
       <c r="AA497" t="n">
         <v>5.0</v>
@@ -57356,8 +57356,8 @@
       <c r="Y498" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z498" t="e">
-        <v>#N/A</v>
+      <c r="Z498" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA498" t="n">
         <v>0.0</v>
@@ -57463,8 +57463,8 @@
       <c r="Y499" t="n">
         <v>54.0</v>
       </c>
-      <c r="Z499" t="e">
-        <v>#N/A</v>
+      <c r="Z499" t="n">
+        <v>12.0</v>
       </c>
       <c r="AA499" t="n">
         <v>0.0</v>
@@ -57570,8 +57570,8 @@
       <c r="Y500" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z500" t="e">
-        <v>#N/A</v>
+      <c r="Z500" t="n">
+        <v>-54.0</v>
       </c>
       <c r="AA500" t="n">
         <v>0.0</v>
@@ -57677,8 +57677,8 @@
       <c r="Y501" t="n">
         <v>52.0</v>
       </c>
-      <c r="Z501" t="e">
-        <v>#N/A</v>
+      <c r="Z501" t="n">
+        <v>20.0</v>
       </c>
       <c r="AA501" t="n">
         <v>0.0</v>
@@ -57784,8 +57784,8 @@
       <c r="Y502" t="n">
         <v>84.0</v>
       </c>
-      <c r="Z502" t="e">
-        <v>#N/A</v>
+      <c r="Z502" t="n">
+        <v>16.0</v>
       </c>
       <c r="AA502" t="n">
         <v>4.0</v>
@@ -57891,8 +57891,8 @@
       <c r="Y503" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z503" t="e">
-        <v>#N/A</v>
+      <c r="Z503" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA503" t="n">
         <v>0.0</v>
@@ -57998,8 +57998,8 @@
       <c r="Y504" t="n">
         <v>56.0</v>
       </c>
-      <c r="Z504" t="e">
-        <v>#N/A</v>
+      <c r="Z504" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA504" t="n">
         <v>9.0</v>
@@ -58212,8 +58212,8 @@
       <c r="Y506" t="n">
         <v>116.0</v>
       </c>
-      <c r="Z506" t="e">
-        <v>#N/A</v>
+      <c r="Z506" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA506" t="n">
         <v>0.0</v>
@@ -58319,8 +58319,8 @@
       <c r="Y507" t="n">
         <v>20.0</v>
       </c>
-      <c r="Z507" t="e">
-        <v>#N/A</v>
+      <c r="Z507" t="n">
+        <v>-10.0</v>
       </c>
       <c r="AA507" t="n">
         <v>0.0</v>
@@ -58426,8 +58426,8 @@
       <c r="Y508" t="n">
         <v>88.0</v>
       </c>
-      <c r="Z508" t="e">
-        <v>#N/A</v>
+      <c r="Z508" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA508" t="n">
         <v>6.0</v>
@@ -58533,8 +58533,8 @@
       <c r="Y509" t="n">
         <v>44.0</v>
       </c>
-      <c r="Z509" t="e">
-        <v>#N/A</v>
+      <c r="Z509" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA509" t="n">
         <v>6.0</v>
@@ -58747,8 +58747,8 @@
       <c r="Y511" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z511" t="e">
-        <v>#N/A</v>
+      <c r="Z511" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA511" t="n">
         <v>0.0</v>
@@ -58854,8 +58854,8 @@
       <c r="Y512" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z512" t="e">
-        <v>#N/A</v>
+      <c r="Z512" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA512" t="n">
         <v>0.0</v>
@@ -58961,8 +58961,8 @@
       <c r="Y513" t="n">
         <v>110.0</v>
       </c>
-      <c r="Z513" t="e">
-        <v>#N/A</v>
+      <c r="Z513" t="n">
+        <v>-32.0</v>
       </c>
       <c r="AA513" t="n">
         <v>18.0</v>
@@ -59068,8 +59068,8 @@
       <c r="Y514" t="n">
         <v>30.0</v>
       </c>
-      <c r="Z514" t="e">
-        <v>#N/A</v>
+      <c r="Z514" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA514" t="n">
         <v>0.0</v>
@@ -59175,8 +59175,8 @@
       <c r="Y515" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z515" t="e">
-        <v>#N/A</v>
+      <c r="Z515" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA515" t="n">
         <v>0.0</v>
@@ -59282,8 +59282,8 @@
       <c r="Y516" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z516" t="e">
-        <v>#N/A</v>
+      <c r="Z516" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA516" t="n">
         <v>6.0</v>
@@ -59389,8 +59389,8 @@
       <c r="Y517" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z517" t="e">
-        <v>#N/A</v>
+      <c r="Z517" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA517" t="n">
         <v>0.0</v>
@@ -59496,8 +59496,8 @@
       <c r="Y518" t="n">
         <v>30.0</v>
       </c>
-      <c r="Z518" t="e">
-        <v>#N/A</v>
+      <c r="Z518" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA518" t="n">
         <v>6.0</v>
@@ -59603,8 +59603,8 @@
       <c r="Y519" t="n">
         <v>42.0</v>
       </c>
-      <c r="Z519" t="e">
-        <v>#N/A</v>
+      <c r="Z519" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA519" t="n">
         <v>0.0</v>
@@ -59710,8 +59710,8 @@
       <c r="Y520" t="n">
         <v>120.0</v>
       </c>
-      <c r="Z520" t="e">
-        <v>#N/A</v>
+      <c r="Z520" t="n">
+        <v>-26.0</v>
       </c>
       <c r="AA520" t="n">
         <v>0.0</v>
@@ -60031,8 +60031,8 @@
       <c r="Y523" t="n">
         <v>92.0</v>
       </c>
-      <c r="Z523" t="e">
-        <v>#N/A</v>
+      <c r="Z523" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA523" t="n">
         <v>0.0</v>
@@ -60138,8 +60138,8 @@
       <c r="Y524" t="n">
         <v>112.0</v>
       </c>
-      <c r="Z524" t="e">
-        <v>#N/A</v>
+      <c r="Z524" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA524" t="n">
         <v>10.0</v>
@@ -60245,8 +60245,8 @@
       <c r="Y525" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z525" t="e">
-        <v>#N/A</v>
+      <c r="Z525" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA525" t="n">
         <v>5.0</v>
@@ -60352,8 +60352,8 @@
       <c r="Y526" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z526" t="e">
-        <v>#N/A</v>
+      <c r="Z526" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA526" t="n">
         <v>0.0</v>
@@ -60459,8 +60459,8 @@
       <c r="Y527" t="n">
         <v>94.0</v>
       </c>
-      <c r="Z527" t="e">
-        <v>#N/A</v>
+      <c r="Z527" t="n">
+        <v>24.0</v>
       </c>
       <c r="AA527" t="n">
         <v>27.0</v>
@@ -60566,8 +60566,8 @@
       <c r="Y528" t="n">
         <v>80.0</v>
       </c>
-      <c r="Z528" t="e">
-        <v>#N/A</v>
+      <c r="Z528" t="n">
+        <v>48.0</v>
       </c>
       <c r="AA528" t="n">
         <v>10.0</v>
@@ -60673,8 +60673,8 @@
       <c r="Y529" t="n">
         <v>32.0</v>
       </c>
-      <c r="Z529" t="e">
-        <v>#N/A</v>
+      <c r="Z529" t="n">
+        <v>8.0</v>
       </c>
       <c r="AA529" t="n">
         <v>0.0</v>
@@ -60780,8 +60780,8 @@
       <c r="Y530" t="n">
         <v>52.0</v>
       </c>
-      <c r="Z530" t="e">
-        <v>#N/A</v>
+      <c r="Z530" t="n">
+        <v>2.0</v>
       </c>
       <c r="AA530" t="n">
         <v>12.0</v>
@@ -60887,8 +60887,8 @@
       <c r="Y531" t="n">
         <v>90.0</v>
       </c>
-      <c r="Z531" t="e">
-        <v>#N/A</v>
+      <c r="Z531" t="n">
+        <v>-36.0</v>
       </c>
       <c r="AA531" t="n">
         <v>5.0</v>
@@ -60994,8 +60994,8 @@
       <c r="Y532" t="n">
         <v>48.0</v>
       </c>
-      <c r="Z532" t="e">
-        <v>#N/A</v>
+      <c r="Z532" t="n">
+        <v>-16.0</v>
       </c>
       <c r="AA532" t="n">
         <v>5.0</v>
@@ -61101,8 +61101,8 @@
       <c r="Y533" t="n">
         <v>20.0</v>
       </c>
-      <c r="Z533" t="e">
-        <v>#N/A</v>
+      <c r="Z533" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA533" t="n">
         <v>0.0</v>
@@ -61208,8 +61208,8 @@
       <c r="Y534" t="n">
         <v>22.0</v>
       </c>
-      <c r="Z534" t="e">
-        <v>#N/A</v>
+      <c r="Z534" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA534" t="n">
         <v>0.0</v>
@@ -61422,8 +61422,8 @@
       <c r="Y536" t="n">
         <v>112.0</v>
       </c>
-      <c r="Z536" t="e">
-        <v>#N/A</v>
+      <c r="Z536" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA536" t="n">
         <v>10.0</v>
@@ -61529,8 +61529,8 @@
       <c r="Y537" t="n">
         <v>50.0</v>
       </c>
-      <c r="Z537" t="e">
-        <v>#N/A</v>
+      <c r="Z537" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA537" t="n">
         <v>0.0</v>
@@ -61636,8 +61636,8 @@
       <c r="Y538" t="n">
         <v>34.0</v>
       </c>
-      <c r="Z538" t="e">
-        <v>#N/A</v>
+      <c r="Z538" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA538" t="n">
         <v>0.0</v>
@@ -61743,8 +61743,8 @@
       <c r="Y539" t="n">
         <v>92.0</v>
       </c>
-      <c r="Z539" t="e">
-        <v>#N/A</v>
+      <c r="Z539" t="n">
+        <v>-32.0</v>
       </c>
       <c r="AA539" t="n">
         <v>0.0</v>
@@ -61850,8 +61850,8 @@
       <c r="Y540" t="n">
         <v>48.0</v>
       </c>
-      <c r="Z540" t="e">
-        <v>#N/A</v>
+      <c r="Z540" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA540" t="n">
         <v>3.0</v>
@@ -61957,8 +61957,8 @@
       <c r="Y541" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z541" t="e">
-        <v>#N/A</v>
+      <c r="Z541" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA541" t="n">
         <v>0.0</v>
@@ -62064,8 +62064,8 @@
       <c r="Y542" t="n">
         <v>8.0</v>
       </c>
-      <c r="Z542" t="e">
-        <v>#N/A</v>
+      <c r="Z542" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA542" t="n">
         <v>0.0</v>
@@ -62171,8 +62171,8 @@
       <c r="Y543" t="n">
         <v>68.0</v>
       </c>
-      <c r="Z543" t="e">
-        <v>#N/A</v>
+      <c r="Z543" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA543" t="n">
         <v>0.0</v>
@@ -62278,8 +62278,8 @@
       <c r="Y544" t="n">
         <v>6.0</v>
       </c>
-      <c r="Z544" t="e">
-        <v>#N/A</v>
+      <c r="Z544" t="n">
+        <v>6.0</v>
       </c>
       <c r="AA544" t="n">
         <v>0.0</v>
@@ -62385,8 +62385,8 @@
       <c r="Y545" t="n">
         <v>8.0</v>
       </c>
-      <c r="Z545" t="e">
-        <v>#N/A</v>
+      <c r="Z545" t="n">
+        <v>-2.0</v>
       </c>
       <c r="AA545" t="n">
         <v>0.0</v>
@@ -62492,8 +62492,8 @@
       <c r="Y546" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z546" t="e">
-        <v>#N/A</v>
+      <c r="Z546" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA546" t="n">
         <v>0.0</v>
@@ -62599,8 +62599,8 @@
       <c r="Y547" t="n">
         <v>40.0</v>
       </c>
-      <c r="Z547" t="e">
-        <v>#N/A</v>
+      <c r="Z547" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA547" t="n">
         <v>0.0</v>
@@ -62706,8 +62706,8 @@
       <c r="Y548" t="n">
         <v>18.0</v>
       </c>
-      <c r="Z548" t="e">
-        <v>#N/A</v>
+      <c r="Z548" t="n">
+        <v>-12.0</v>
       </c>
       <c r="AA548" t="n">
         <v>0.0</v>
@@ -62920,8 +62920,8 @@
       <c r="Y550" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z550" t="e">
-        <v>#N/A</v>
+      <c r="Z550" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA550" t="n">
         <v>0.0</v>
@@ -63027,8 +63027,8 @@
       <c r="Y551" t="n">
         <v>98.0</v>
       </c>
-      <c r="Z551" t="e">
-        <v>#N/A</v>
+      <c r="Z551" t="n">
+        <v>-24.0</v>
       </c>
       <c r="AA551" t="n">
         <v>8.0</v>
@@ -63241,8 +63241,8 @@
       <c r="Y553" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z553" t="e">
-        <v>#N/A</v>
+      <c r="Z553" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA553" t="n">
         <v>0.0</v>
@@ -63348,8 +63348,8 @@
       <c r="Y554" t="n">
         <v>60.0</v>
       </c>
-      <c r="Z554" t="e">
-        <v>#N/A</v>
+      <c r="Z554" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA554" t="n">
         <v>9.0</v>
@@ -63562,8 +63562,8 @@
       <c r="Y556" t="n">
         <v>64.0</v>
       </c>
-      <c r="Z556" t="e">
-        <v>#N/A</v>
+      <c r="Z556" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA556" t="n">
         <v>4.0</v>
@@ -63669,8 +63669,8 @@
       <c r="Y557" t="n">
         <v>6.0</v>
       </c>
-      <c r="Z557" t="e">
-        <v>#N/A</v>
+      <c r="Z557" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA557" t="n">
         <v>0.0</v>
@@ -63776,8 +63776,8 @@
       <c r="Y558" t="n">
         <v>60.0</v>
       </c>
-      <c r="Z558" t="e">
-        <v>#N/A</v>
+      <c r="Z558" t="n">
+        <v>-8.0</v>
       </c>
       <c r="AA558" t="n">
         <v>0.0</v>
@@ -63883,8 +63883,8 @@
       <c r="Y559" t="n">
         <v>102.0</v>
       </c>
-      <c r="Z559" t="e">
-        <v>#N/A</v>
+      <c r="Z559" t="n">
+        <v>4.0</v>
       </c>
       <c r="AA559" t="n">
         <v>12.0</v>
@@ -63990,8 +63990,8 @@
       <c r="Y560" t="n">
         <v>104.0</v>
       </c>
-      <c r="Z560" t="e">
-        <v>#N/A</v>
+      <c r="Z560" t="n">
+        <v>-14.0</v>
       </c>
       <c r="AA560" t="n">
         <v>24.0</v>
@@ -64097,8 +64097,8 @@
       <c r="Y561" t="n">
         <v>112.0</v>
       </c>
-      <c r="Z561" t="e">
-        <v>#N/A</v>
+      <c r="Z561" t="n">
+        <v>126.0</v>
       </c>
       <c r="AA561" t="n">
         <v>32.0</v>
@@ -64204,8 +64204,8 @@
       <c r="Y562" t="n">
         <v>130.0</v>
       </c>
-      <c r="Z562" t="e">
-        <v>#N/A</v>
+      <c r="Z562" t="n">
+        <v>-62.0</v>
       </c>
       <c r="AA562" t="n">
         <v>0.0</v>
@@ -64311,8 +64311,8 @@
       <c r="Y563" t="n">
         <v>90.0</v>
       </c>
-      <c r="Z563" t="e">
-        <v>#N/A</v>
+      <c r="Z563" t="n">
+        <v>66.0</v>
       </c>
       <c r="AA563" t="n">
         <v>30.0</v>
@@ -64418,8 +64418,8 @@
       <c r="Y564" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z564" t="e">
-        <v>#N/A</v>
+      <c r="Z564" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA564" t="n">
         <v>0.0</v>
@@ -64525,8 +64525,8 @@
       <c r="Y565" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z565" t="e">
-        <v>#N/A</v>
+      <c r="Z565" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA565" t="n">
         <v>0.0</v>
@@ -64739,8 +64739,8 @@
       <c r="Y567" t="n">
         <v>58.0</v>
       </c>
-      <c r="Z567" t="e">
-        <v>#N/A</v>
+      <c r="Z567" t="n">
+        <v>-44.0</v>
       </c>
       <c r="AA567" t="n">
         <v>0.0</v>
@@ -64846,8 +64846,8 @@
       <c r="Y568" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z568" t="e">
-        <v>#N/A</v>
+      <c r="Z568" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA568" t="n">
         <v>0.0</v>
@@ -64953,8 +64953,8 @@
       <c r="Y569" t="n">
         <v>22.0</v>
       </c>
-      <c r="Z569" t="e">
-        <v>#N/A</v>
+      <c r="Z569" t="n">
+        <v>-22.0</v>
       </c>
       <c r="AA569" t="n">
         <v>0.0</v>
@@ -65060,8 +65060,8 @@
       <c r="Y570" t="n">
         <v>4.0</v>
       </c>
-      <c r="Z570" t="e">
-        <v>#N/A</v>
+      <c r="Z570" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA570" t="n">
         <v>0.0</v>
@@ -65488,8 +65488,8 @@
       <c r="Y574" t="n">
         <v>24.0</v>
       </c>
-      <c r="Z574" t="e">
-        <v>#N/A</v>
+      <c r="Z574" t="n">
+        <v>-18.0</v>
       </c>
       <c r="AA574" t="n">
         <v>0.0</v>
@@ -65702,8 +65702,8 @@
       <c r="Y576" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z576" t="e">
-        <v>#N/A</v>
+      <c r="Z576" t="n">
+        <v>0.0</v>
       </c>
       <c r="AA576" t="n">
         <v>0.0</v>
@@ -65809,8 +65809,8 @@
       <c r="Y577" t="n">
         <v>50.0</v>
       </c>
-      <c r="Z577" t="e">
-        <v>#N/A</v>
+      <c r="Z577" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA577" t="n">
         <v>6.0</v>
@@ -65916,8 +65916,8 @@
       <c r="Y578" t="n">
         <v>100.0</v>
       </c>
-      <c r="Z578" t="e">
-        <v>#N/A</v>
+      <c r="Z578" t="n">
+        <v>10.0</v>
       </c>
       <c r="AA578" t="n">
         <v>0.0</v>
@@ -66130,8 +66130,8 @@
       <c r="Y580" t="n">
         <v>28.0</v>
       </c>
-      <c r="Z580" t="e">
-        <v>#N/A</v>
+      <c r="Z580" t="n">
+        <v>-4.0</v>
       </c>
       <c r="AA580" t="n">
         <v>0.0</v>
@@ -66237,8 +66237,8 @@
       <c r="Y581" t="n">
         <v>28.0</v>
       </c>
-      <c r="Z581" t="e">
-        <v>#N/A</v>
+      <c r="Z581" t="n">
+        <v>-6.0</v>
       </c>
       <c r="AA581" t="n">
         <v>0.0</v>
